--- a/public/preprocessing/@SammiSoh.xlsx
+++ b/public/preprocessing/@SammiSoh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,34 +480,35 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>16345</v>
+        <v>27113</v>
       </c>
       <c r="C2" t="n">
-        <v>205</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>kejaksaan menghentikan kasus penistaan agama perawat yg mandikan jenazah dgn dasar ini maka bisa dimulai sanksi</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>['kejaksaan', 'menghentikan', 'kasus', 'penistaan', 'agama', 'perawat', 'yg', 'mandikan', 'jenazah', 'dgn', 'dasar', 'ini', 'maka', 'bisa', 'dimulai', 'sanksi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['kejaksaan', 'menghentikan', 'penistaan', 'agama', 'perawat', 'mandikan', 'jenazah', 'dasar', 'sanksi']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['jaksa', 'henti', 'nista', 'agama', 'awat', 'mandi', 'jenazah', 'dasar', 'sanksi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -511,34 +517,39 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16346</v>
+        <v>27114</v>
       </c>
       <c r="C3" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>udah makan belom</t>
+          <t>para kafir ini spt katak dlm tempurung mungkin juga terlalu lama jadi cebong baru sampai ke bulan aja para pki</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['udah', 'makan', 'belom']</t>
+          <t>['para', 'kafir', 'ini', 'spt', 'katak', 'dlm', 'tempurung', 'mungkin', 'juga', 'terlalu', 'lama', 'jadi', 'cebong', 'baru', 'sampai', 'ke', 'bulan', 'aja', 'para', 'pki']</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['para', 'kafir', 'ini', 'surat, pemberitahuan, tahunan', 'katak', 'dalam', 'tempurung', 'mungkin', 'juga', 'terlalu', 'lama', 'jadi', 'cebong', 'baru', 'sampai', 'ke', 'bulan', 'saja', 'para', 'partai, komunis, indonesia']</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['udah', 'makan', 'belom']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['udah', 'makan', 'bom']</t>
+          <t>['kafir', 'surat, pemberitahuan, tahunan', 'katak', 'tempurung', 'cebong', 'partai, komunis, indonesia']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['kafir', 'surat pemberitahuan tahun', 'katak', 'tempurung', 'cebong', 'partai komunis indonesia']</t>
         </is>
       </c>
     </row>
@@ -547,34 +558,35 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>16347</v>
+        <v>27115</v>
       </c>
       <c r="C4" t="n">
-        <v>205</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>foto luar biasa ini memenangkan penghargaan fotografi medali emas di tiongkok dgn katakata mutiara di pundak say</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>['foto', 'luar', 'biasa', 'ini', 'memenangkan', 'penghargaan', 'fotografi', 'medali', 'emas', 'di', 'tiongkok', 'dgn', 'katakata', 'mutiara', 'di', 'pundak', 'say']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['foto', 'memenangkan', 'penghargaan', 'fotografi', 'medali', 'emas', 'tiongkok', 'katakata', 'mutiara', 'pundak', 'say']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['foto', 'menang', 'harga', 'fotografi', 'medali', 'emas', 'tiongkok', 'katakata', 'mutiara', 'pundak', 'say']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -583,34 +595,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>16348</v>
+        <v>27116</v>
       </c>
       <c r="C5" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>tdk ada jalan lain selain sungai wajib dinormalisasi kata kadis sumber daya air jakarta selatan sepertinya dki</t>
+          <t>ini ajarannya bro</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>['tdk', 'ada', 'jalan', 'lain', 'selain', 'sungai', 'wajib', 'dinormalisasi', 'kata', 'kadis', 'sumber', 'daya', 'air', 'jakarta', 'selatan', 'sepertinya', 'dki']</t>
+          <t>['ini', 'ajarannya', 'bro']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['ini', 'ajarannya', 'bro']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['jalan', 'sungai', 'wajib', 'dinormalisasi', 'kadis', 'sumber', 'daya', 'air', 'jakarta', 'selatan', 'dki']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['jalan', 'sungai', 'wajib', 'normalisasi', 'kad', 'sumber', 'daya', 'air', 'jakarta', 'selatan', 'dki']</t>
+          <t>['ajarannya', 'bro']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['ajar', 'bro']</t>
         </is>
       </c>
     </row>
@@ -619,34 +636,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>16349</v>
+        <v>27117</v>
       </c>
       <c r="C6" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>kita tdk bisa didikte oleh mui ttg tindak pidana penistaan agama yg menyangkut perawat yg memandikan jenazah wani</t>
+          <t>yg dekat aja pernah gak dengar ada tuduhan rizieq bukan islam</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['kita', 'tdk', 'bisa', 'didikte', 'oleh', 'mui', 'ttg', 'tindak', 'pidana', 'penistaan', 'agama', 'yg', 'menyangkut', 'perawat', 'yg', 'memandikan', 'jenazah', 'wani']</t>
+          <t>['yg', 'dekat', 'aja', 'pernah', 'gak', 'dengar', 'ada', 'tuduhan', 'rizieq', 'bukan', 'islam']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['yang', 'dekat', 'saja', 'pernah', 'tidak', 'dengar', 'ada', 'tuduhan', 'rizieq', 'bukan', 'islam']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['didikte', 'mui', 'ttg', 'tindak', 'pidana', 'penistaan', 'agama', 'perawat', 'memandikan', 'jenazah', 'wani']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['dikte', 'mui', 'ttg', 'tindak', 'pidana', 'nista', 'agama', 'awat', 'mandi', 'jenazah', 'wani']</t>
+          <t>['dengar', 'tuduhan', 'rizieq', 'islam']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['dengar', 'tuduh', 'rizieq', 'islam']</t>
         </is>
       </c>
     </row>
@@ -655,34 +677,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>16350</v>
+        <v>27118</v>
       </c>
       <c r="C7" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>kronologi avanza pecah ban oleng ke kanan dari arah seberang bus meluncur dan menabrak mati supir bus lari</t>
+          <t>bagus ya khayalannya lanjutkan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['kronologi', 'avanza', 'pecah', 'ban', 'oleng', 'ke', 'kanan', 'dari', 'arah', 'seberang', 'bus', 'meluncur', 'dan', 'menabrak', 'mati', 'supir', 'bus', 'lari']</t>
+          <t>['bagus', 'ya', 'khayalannya', 'lanjutkan']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['bagus', 'ya', 'khayalannya', 'lanjutkan']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['kronologi', 'avanza', 'pecah', 'ban', 'oleng', 'kanan', 'arah', 'seberang', 'bus', 'meluncur', 'menabrak', 'mati', 'supir', 'bus', 'lari']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['kronologi', 'avanza', 'pecah', 'ban', 'oleng', 'kanan', 'arah', 'seberang', 'bus', 'luncur', 'tabrak', 'mati', 'supir', 'bus', 'lari']</t>
+          <t>['bagus', 'khayalannya', 'lanjutkan']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['bagus', 'khayal', 'lanjut']</t>
         </is>
       </c>
     </row>
@@ -691,34 +718,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16351</v>
+        <v>27119</v>
       </c>
       <c r="C8" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>rt kuntadhi hentikan kriminalisasi nakes rsud pematang siantar menggunakan pasal penistaan agama tanggal sept seorang pasi</t>
+          <t>mari bagi kue di</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>['rt', 'kuntadhi', 'hentikan', 'kriminalisasi', 'nakes', 'rsud', 'pematang', 'siantar', 'menggunakan', 'pasal', 'penistaan', 'agama', 'tanggal', 'sept', 'seorang', 'pasi']</t>
+          <t>['mari', 'bagi', 'kue', 'di']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['mari', 'bagi', 'kue', 'di']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'hentikan', 'kriminalisasi', 'nakes', 'rsud', 'pematang', 'siantar', 'pasal', 'penistaan', 'agama', 'tanggal', 'sept', 'pasi']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'henti', 'kriminalisasi', 'nakes', 'rsud', 'pematang', 'siantar', 'pasal', 'nista', 'agama', 'tanggal', 'sept', 'pasi']</t>
+          <t>['mari', 'kue']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['mari', 'kue']</t>
         </is>
       </c>
     </row>
@@ -727,34 +759,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>16352</v>
+        <v>27120</v>
       </c>
       <c r="C9" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>rt kuntadhi gerombolan jenis ini yang mau menyeret tenaga kesehatan kita dengan pasal penistaan agama sayangnya aparat keamanan tu</t>
+          <t xml:space="preserve">argumentum ad populum kalau benar penyimpangan islam bukan islam kenapa tdk ada penyangkalan kalau </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>['rt', 'kuntadhi', 'gerombolan', 'jenis', 'ini', 'yang', 'mau', 'menyeret', 'tenaga', 'kesehatan', 'kita', 'dengan', 'pasal', 'penistaan', 'agama', 'sayangnya', 'aparat', 'keamanan', 'tu']</t>
+          <t>['argumentum', 'ad', 'populum', 'kalau', 'benar', 'penyimpangan', 'islam', 'bukan', 'islam', 'kenapa', 'tdk', 'ada', 'penyangkalan', 'kalau']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['argumentum', 'ada', 'populum', 'kalau', 'benar', 'penyimpangan', 'islam', 'bukan', 'islam', 'kenapa', 'tidak', 'ada', 'penyangkalan', 'kalau']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'gerombolan', 'jenis', 'menyeret', 'tenaga', 'kesehatan', 'pasal', 'penistaan', 'agama', 'sayangnya', 'aparat', 'keamanan', 'tu']</t>
+          <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'gerombol', 'jenis', 'seret', 'tenaga', 'sehat', 'pasal', 'nista', 'agama', 'sayang', 'aparat', 'aman', 'tu']</t>
+          <t>['argumentum', 'populum', 'penyimpangan', 'islam', 'islam', 'penyangkalan']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['argumentum', 'populum', 'simpang', 'islam', 'islam', 'sangkal']</t>
         </is>
       </c>
     </row>
@@ -763,34 +800,39 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>16353</v>
+        <v>27121</v>
       </c>
       <c r="C10" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>kasihan lihat yg satu ini bagus di karir militer ditarik keluarga utk selamatkan kapal pecah ibas sdh gak mung</t>
+          <t>saya siap berhadapan dgn siapa saja utk argumen ini silahkan ajukan counter debat</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['kasihan', 'lihat', 'yg', 'satu', 'ini', 'bagus', 'di', 'karir', 'militer', 'ditarik', 'keluarga', 'utk', 'selamatkan', 'kapal', 'pecah', 'ibas', 'sdh', 'gak', 'mung']</t>
+          <t>['saya', 'siap', 'berhadapan', 'dgn', 'siapa', 'saja', 'utk', 'argumen', 'ini', 'silahkan', 'ajukan', 'counter', 'debat']</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['saya', 'siap', 'berhadapan', 'dengan', 'siapa', 'saja', 'untuk', 'argumen', 'ini', 'silakan', 'ajukan', 'counter', 'debat']</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['kasihan', 'lihat', 'bagus', 'karir', 'militer', 'ditarik', 'keluarga', 'selamatkan', 'kapal', 'pecah', 'ibas', 'mung']</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['kasihan', 'lihat', 'bagus', 'karir', 'militer', 'tarik', 'keluarga', 'selamat', 'kapal', 'pecah', 'ibas', 'mung']</t>
+          <t>['berhadapan', 'argumen', 'silakan', 'ajukan', 'counter', 'debat']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['hadap', 'argumen', 'sila', 'aju', 'counter', 'debat']</t>
         </is>
       </c>
     </row>
@@ -799,34 +841,39 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16354</v>
+        <v>27122</v>
       </c>
       <c r="C11" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>mendapat penghargaan transportasi anies pentingkan lalu lintas yg lancar di tengah banjir dki pagi ini ia memimpi</t>
+          <t>diuji ya rizieq penganut agama islam atau bukan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>['mendapat', 'penghargaan', 'transportasi', 'anies', 'pentingkan', 'lalu', 'lintas', 'yg', 'lancar', 'di', 'tengah', 'banjir', 'dki', 'pagi', 'ini', 'ia', 'memimpi']</t>
+          <t>['diuji', 'ya', 'rizieq', 'penganut', 'agama', 'islam', 'atau', 'bukan']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['diuji', 'ya', 'rizieq', 'penganut', 'agama', 'islam', 'atau', 'bukan']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['penghargaan', 'transportasi', 'anies', 'pentingkan', 'lintas', 'lancar', 'banjir', 'dki', 'pagi', 'memimpi']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['harga', 'transportasi', 'anies', 'penting', 'lintas', 'lancar', 'banjir', 'dki', 'pagi', 'mimpi']</t>
+          <t>['diuji', 'rizieq', 'penganut', 'agama', 'islam']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['uji', 'rizieq', 'anut', 'agama', 'islam']</t>
         </is>
       </c>
     </row>
@@ -835,34 +882,39 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>16355</v>
+        <v>27123</v>
       </c>
       <c r="C12" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>rt giring normalisasi era ahok dihapus tapi naturalisasi malah tak dikerjakan anies</t>
+          <t>penafsiran islam yg salah itu apakah bukan islam apa berani pemerintah bilang itu bukan islam semua ag</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['rt', 'giring', 'normalisasi', 'era', 'ahok', 'dihapus', 'tapi', 'naturalisasi', 'malah', 'tak', 'dikerjakan', 'anies']</t>
+          <t>['penafsiran', 'islam', 'yg', 'salah', 'itu', 'apakah', 'bukan', 'islam', 'apa', 'berani', 'pemerintah', 'bilang', 'itu', 'bukan', 'islam', 'semua', 'ag']</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
+          <t>['penafsiran', 'islam', 'yang', 'salah', 'itu', 'apakah', 'bukan', 'islam', 'apa', 'berani', 'pemerintah', 'bilang', 'itu', 'bukan', 'islam', 'semua', 'ag']</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['giring', 'normalisasi', 'era', 'ahok', 'dihapus', 'naturalisasi', 'anies']</t>
+          <t>&lt;FreqDist with 13 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['giring', 'normalisasi', 'era', 'ahok', 'hapus', 'naturalisasi', 'anies']</t>
+          <t>['penafsiran', 'islam', 'salah', 'islam', 'berani', 'pemerintah', 'islam', 'ag']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['tafsir', 'islam', 'salah', 'islam', 'berani', 'perintah', 'islam', 'ag']</t>
         </is>
       </c>
     </row>
@@ -871,34 +923,39 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>16356</v>
+        <v>27124</v>
       </c>
       <c r="C13" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ini instruksi anies ke air banjir elu air kalau datang di bawah  tdk boleh ada genangan kalau elu datan</t>
+          <t>belum banyak kasusnya silahkan dikembangkan islam radikal yg membuat heboh dunia skrg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['ini', 'instruksi', 'anies', 'ke', 'air', 'banjir', 'elu', 'air', 'kalau', 'datang', 'di', 'bawah', 'tdk', 'boleh', 'ada', 'genangan', 'kalau', 'elu', 'datan']</t>
+          <t>['belum', 'banyak', 'kasusnya', 'silahkan', 'dikembangkan', 'islam', 'radikal', 'yg', 'membuat', 'heboh', 'dunia', 'skrg']</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['belum', 'banyak', 'kasusnya', 'silakan', 'dikembangkan', 'islam', 'radikal', 'yang', 'membuat', 'heboh', 'dunia', 'sekarang']</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['instruksi', 'anies', 'air', 'banjir', 'elu', 'air', 'genangan', 'elu', 'datan']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['instruksi', 'anies', 'air', 'banjir', 'elu', 'air', 'genang', 'elu', 'datan']</t>
+          <t>['kasusnya', 'silakan', 'dikembangkan', 'islam', 'radikal', 'heboh', 'dunia']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['kasus', 'sila', 'kembang', 'islam', 'radikal', 'heboh', 'dunia']</t>
         </is>
       </c>
     </row>
@@ -907,34 +964,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>16357</v>
+        <v>27125</v>
       </c>
       <c r="C14" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>rt kuntadhi alhamdulillah saya sudah mendapatkan kontak lawyer dari ppni yang menangani kasus kriminalisasi petugas medis di rsud pe</t>
+          <t>ada logika aneh yg berkembang dari jokowi jika ada yg jadi teroris bernuansa agama kita sangkal dia berbuat bukan</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['rt', 'kuntadhi', 'alhamdulillah', 'saya', 'sudah', 'mendapatkan', 'kontak', 'lawyer', 'dari', 'ppni', 'yang', 'menangani', 'kasus', 'kriminalisasi', 'petugas', 'medis', 'di', 'rsud', 'pe']</t>
+          <t>['ada', 'logika', 'aneh', 'yg', 'berkembang', 'dari', 'jokowi', 'jika', 'ada', 'yg', 'jadi', 'teroris', 'bernuansa', 'agama', 'kita', 'sangkal', 'dia', 'berbuat', 'bukan']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['ada', 'logika', 'aneh', 'yang', 'berkembang', 'dari', 'jokowi', 'jika', 'ada', 'yang', 'jadi', 'teroris', 'bernuansa', 'agama', 'kita', 'sangkal', 'dia', 'berbuat', 'bukan']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'alhamdulillah', 'kontak', 'lawyer', 'ppni', 'menangani', 'kriminalisasi', 'petugas', 'medis', 'rsud', 'pe']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['kuntadhi', 'alhamdulillah', 'kontak', 'lawyer', 'ppni', 'tangan', 'kriminalisasi', 'tugas', 'medis', 'rsud', 'pe']</t>
+          <t>['logika', 'aneh', 'berkembang', 'jokowi', 'teroris', 'bernuansa', 'agama', 'sangkal', 'berbuat']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['logika', 'aneh', 'kembang', 'jokowi', 'teroris', 'nuansa', 'agama', 'sangkal', 'buat']</t>
         </is>
       </c>
     </row>
@@ -943,34 +1005,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>16358</v>
+        <v>27126</v>
       </c>
       <c r="C15" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>rt selamat pagi tangerang kembali saya sampaikan ada penjual ayat quran entah untuk siapa uangnya yg jelas ini anak</t>
+          <t>saya menyalahkan islam berpaham radikal</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>['rt', 'selamat', 'pagi', 'tangerang', 'kembali', 'saya', 'sampaikan', 'ada', 'penjual', 'ayat', 'quran', 'entah', 'untuk', 'siapa', 'uangnya', 'yg', 'jelas', 'ini', 'anak']</t>
+          <t>['saya', 'menyalahkan', 'islam', 'berpaham', 'radikal']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['saya', 'menyalahkan', 'islam', 'berpaham', 'radikal']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'tangerang', 'penjual', 'ayat', 'quran', 'uangnya', 'anak']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['selamat', 'pagi', 'tangerang', 'jual', 'ayat', 'quran', 'uang', 'anak']</t>
+          <t>['menyalahkan', 'islam', 'berpaham', 'radikal']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['salah', 'islam', 'paham', 'radikal']</t>
         </is>
       </c>
     </row>
@@ -979,34 +1046,35 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>16359</v>
+        <v>27127</v>
       </c>
       <c r="C16" t="n">
-        <v>205</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>rt wowgub peraih piagamhebattt nex for pleciden</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>['rt', 'wowgub', 'peraih', 'piagamhebattt', 'nex', 'for', 'pleciden']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['wowgub', 'peraih', 'piagamhebattt', 'nex', 'for', 'pleciden']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['wowgub', 'raih', 'piagamhebattt', 'nex', 'for', 'pleciden']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1015,34 +1083,39 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>16360</v>
+        <v>27128</v>
       </c>
       <c r="C17" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>siaga  melihat ada apa mengetahui ada banjir memberitahu mana toa tanggap tangkap pergunakan</t>
+          <t>perhatian para pemerhati properti akhirat daripada kita pusingi rumah dp yg gak tahu apa ujungnya mari kita al</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>['siaga', 'melihat', 'ada', 'apa', 'mengetahui', 'ada', 'banjir', 'memberitahu', 'mana', 'toa', 'tanggap', 'tangkap', 'pergunakan']</t>
+          <t>['perhatian', 'para', 'pemerhati', 'properti', 'akhirat', 'daripada', 'kita', 'pusingi', 'rumah', 'dp', 'yg', 'gak', 'tahu', 'apa', 'ujungnya', 'mari', 'kita', 'al']</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
+          <t>['perhatian', 'para', 'pemerhati', 'properti', 'akhirat', 'daripada', 'kita', 'pusingi', 'rumah', 'uang, muka', 'yang', 'tidak', 'tahu', 'apa', 'ujungnya', 'mari', 'kita', 'al']</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>['siaga', 'banjir', 'memberitahu', 'toa', 'tanggap', 'tangkap', 'pergunakan']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['siaga', 'banjir', 'memberitahu', 'toa', 'tanggap', 'tangkap', 'guna']</t>
+          <t>['perhatian', 'pemerhati', 'properti', 'akhirat', 'pusingi', 'rumah', 'uang, muka', 'ujungnya', 'mari', 'al']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['perhati', 'perhati', 'properti', 'akhirat', 'pusing', 'rumah', 'uang muka', 'ujung', 'mari', 'al']</t>
         </is>
       </c>
     </row>
@@ -1051,34 +1124,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16361</v>
+        <v>27129</v>
       </c>
       <c r="C18" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>berita lucu jumat lalu rizieq absen sembahyang jumat lalu mau ke rs utk kontrol kesehatan eh ternyata ia mau</t>
+          <t>mereka malah teriak takbir saat di detik terakhir penggal kepala atau bom bunuh diri coba tanya ke pengantin bo</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>['berita', 'lucu', 'jumat', 'lalu', 'rizieq', 'absen', 'sembahyang', 'jumat', 'lalu', 'mau', 'ke', 'rs', 'utk', 'kontrol', 'kesehatan', 'eh', 'ternyata', 'ia', 'mau']</t>
+          <t>['mereka', 'malah', 'teriak', 'takbir', 'saat', 'di', 'detik', 'terakhir', 'penggal', 'kepala', 'atau', 'bom', 'bunuh', 'diri', 'coba', 'tanya', 'ke', 'pengantin', 'bo']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['mereka', 'malah', 'teriak', 'takbir', 'saat', 'di', 'detik', 'terakhir', 'penggal', 'kepala', 'atau', 'bom', 'bunuh', 'diri', 'coba', 'tanya', 'ke', 'pengantin', 'bo']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>['berita', 'lucu', 'jumat', 'rizieq', 'absen', 'sembahyang', 'jumat', 'rs', 'kontrol', 'kesehatan', 'eh']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>['berita', 'lucu', 'jumat', 'rizieq', 'absen', 'sembahyang', 'jumat', 'rs', 'kontrol', 'sehat', 'eh']</t>
+          <t>['teriak', 'takbir', 'detik', 'penggal', 'kepala', 'bom', 'bunuh', 'coba', 'pengantin', 'bo']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['teriak', 'takbir', 'detik', 'penggal', 'kepala', 'bom', 'bunuh', 'coba', 'pengantin', 'bo']</t>
         </is>
       </c>
     </row>
@@ -1087,34 +1165,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>16362</v>
+        <v>27130</v>
       </c>
       <c r="C19" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>anies sgt bangga bisa pertahankan dki tdk tenggelam semua karena team anies mengendalikan pintu air dgn baik pada</t>
+          <t>batas gaji pemilik rumah dp jadi rp juta wagub dki sudah diperhitungkan anies mulai menyalahkan pemerintah</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>['anies', 'sgt', 'bangga', 'bisa', 'pertahankan', 'dki', 'tdk', 'tenggelam', 'semua', 'karena', 'team', 'anies', 'mengendalikan', 'pintu', 'air', 'dgn', 'baik', 'pada']</t>
+          <t>['batas', 'gaji', 'pemilik', 'rumah', 'dp', 'jadi', 'rp', 'juta', 'wagub', 'dki', 'sudah', 'diperhitungkan', 'anies', 'mulai', 'menyalahkan', 'pemerintah']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['batas', 'gaji', 'pemilik', 'rumah', 'uang, muka', 'jadi', 'rupiah', 'juta', 'wakil, gubernur', 'daerah, khusus, ibukota', 'sudah', 'diperhitungkan', 'anies', 'mulai', 'menyalahkan', 'pemerintah']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>['anies', 'sgt', 'bangga', 'pertahankan', 'dki', 'tenggelam', 'team', 'anies', 'mengendalikan', 'pintu', 'air']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['anies', 'sgt', 'bangga', 'tahan', 'dki', 'tenggelam', 'team', 'anies', 'kendali', 'pintu', 'air']</t>
+          <t>['batas', 'gaji', 'pemilik', 'rumah', 'uang, muka', 'rupiah', 'juta', 'wakil, gubernur', 'daerah, khusus, ibukota', 'diperhitungkan', 'anies', 'menyalahkan', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['batas', 'gaji', 'milik', 'rumah', 'uang muka', 'rupiah', 'juta', 'wakil gubernur', 'daerah khusus ibukota', 'hitung', 'anies', 'salah', 'perintah']</t>
         </is>
       </c>
     </row>
@@ -1123,34 +1206,39 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>16363</v>
+        <v>27131</v>
       </c>
       <c r="C20" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>sgt jelas anies cuma level jualan obat emperan jalan pak basuki sudah ajak diskusi program naturalisasi anies tap</t>
+          <t>dansu mereka malah teriak takbir saat di detik terakhir penggal kepala atau bom bunuh diri coba tanya ke peng</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>['sgt', 'jelas', 'anies', 'cuma', 'level', 'jualan', 'obat', 'emperan', 'jalan', 'pak', 'basuki', 'sudah', 'ajak', 'diskusi', 'program', 'naturalisasi', 'anies', 'tap']</t>
+          <t>['dansu', 'mereka', 'malah', 'teriak', 'takbir', 'saat', 'di', 'detik', 'terakhir', 'penggal', 'kepala', 'atau', 'bom', 'bunuh', 'diri', 'coba', 'tanya', 'ke', 'peng']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['dansu', 'mereka', 'malah', 'teriak', 'takbir', 'saat', 'di', 'detik', 'terakhir', 'penggal', 'kepala', 'atau', 'bom', 'bunuh', 'diri', 'coba', 'tanya', 'ke', 'peng']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>['sgt', 'anies', 'level', 'jualan', 'obat', 'emperan', 'jalan', 'basuki', 'ajak', 'diskusi', 'program', 'naturalisasi', 'anies', 'tap']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['sgt', 'anies', 'level', 'jual', 'obat', 'emper', 'jalan', 'basuki', 'ajak', 'diskusi', 'program', 'naturalisasi', 'anies', 'tap']</t>
+          <t>['dansu', 'teriak', 'takbir', 'detik', 'penggal', 'kepala', 'bom', 'bunuh', 'coba', 'peng']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['dansu', 'teriak', 'takbir', 'detik', 'penggal', 'kepala', 'bom', 'bunuh', 'coba', 'peng']</t>
         </is>
       </c>
     </row>
@@ -1159,34 +1247,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>16364</v>
+        <v>27132</v>
       </c>
       <c r="C21" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>nissa keceplosan sebut dirinya umi saat bersama dgn ayus</t>
+          <t>beraninya mui melarang pemakaian masker kepada wanita tunggu apa lagi pemerintah untuk tdk segera melakukan mosi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['nissa', 'keceplosan', 'sebut', 'dirinya', 'umi', 'saat', 'bersama', 'dgn', 'ayus']</t>
+          <t>['beraninya', 'mui', 'melarang', 'pemakaian', 'masker', 'kepada', 'wanita', 'tunggu', 'apa', 'lagi', 'pemerintah', 'untuk', 'tdk', 'segera', 'melakukan', 'mosi']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['beraninya', 'majelis, ulama, indonesia', 'melarang', 'pemakaian', 'masker', 'kepada', 'wanita', 'tunggu', 'apa', 'lagi', 'pemerintah', 'untuk', 'tidak', 'segera', 'melakukan', 'mosi']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>['nissa', 'keceplosan', 'umi', 'ayus']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['nissa', 'ceplos', 'umi', 'ayus']</t>
+          <t>['beraninya', 'majelis, ulama, indonesia', 'melarang', 'pemakaian', 'masker', 'wanita', 'tunggu', 'pemerintah', 'mosi']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['berani', 'majelis ulama indonesia', 'larang', 'pakai', 'masker', 'wanita', 'tunggu', 'perintah', 'mosi']</t>
         </is>
       </c>
     </row>
@@ -1195,34 +1288,39 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>16365</v>
+        <v>27133</v>
       </c>
       <c r="C22" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>selisih usia nissa dan ayus jauh banget nissa di thn dan ayus sdh an thn</t>
+          <t>menurut gw justru karena agama demi agama dan utk agama justru tdk ada tindakan pemerintah mered</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['selisih', 'usia', 'nissa', 'dan', 'ayus', 'jauh', 'banget', 'nissa', 'di', 'thn', 'dan', 'ayus', 'sdh', 'an', 'thn']</t>
+          <t>['menurut', 'gw', 'justru', 'karena', 'agama', 'demi', 'agama', 'dan', 'utk', 'agama', 'justru', 'tdk', 'ada', 'tindakan', 'pemerintah', 'mered']</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 15 outcomes&gt;</t>
+          <t>['menurut', 'gue', 'justru', 'karena', 'agama', 'demi', 'agama', 'dan', 'untuk', 'agama', 'justru', 'tidak', 'ada', 'tindakan', 'pemerintah', 'mered']</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['selisih', 'usia', 'nissa', 'ayus', 'banget', 'nissa', 'thn', 'ayus', 'an', 'thn']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['selisih', 'usia', 'nissa', 'ayus', 'banget', 'nissa', 'thn', 'ayus', 'an', 'thn']</t>
+          <t>['gue', 'agama', 'agama', 'agama', 'tindakan', 'pemerintah', 'mered']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['gue', 'agama', 'agama', 'agama', 'tindak', 'perintah', 'mered']</t>
         </is>
       </c>
     </row>
@@ -1231,34 +1329,35 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>16366</v>
+        <v>27134</v>
       </c>
       <c r="C23" t="n">
-        <v>205</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">air tdk surut dlm jam kini anies salahkan air kiriman dan sungai yg gak mau surut anies bangga kenapa dki blm </t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['air', 'tdk', 'surut', 'dlm', 'jam', 'kini', 'anies', 'salahkan', 'air', 'kiriman', 'dan', 'sungai', 'yg', 'gak', 'mau', 'surut', 'anies', 'bangga', 'kenapa', 'dki', 'blm']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 21 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['air', 'surut', 'dlm', 'jam', 'anies', 'salahkan', 'air', 'kiriman', 'sungai', 'surut', 'anies', 'bangga', 'dki', 'blm']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['air', 'surut', 'dlm', 'jam', 'anies', 'salah', 'air', 'kirim', 'sungai', 'surut', 'anies', 'bangga', 'dki', 'blm']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1267,34 +1366,39 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>16367</v>
+        <v>27135</v>
       </c>
       <c r="C24" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>salut dgn aparat yg bubarkan gerombolan fpi mau pembela atau persaudaraan islam semua dibubarkan kita semua tahu</t>
+          <t>space antar baris bukan patokan karena bukan dirancang pakai word kebanyakan poster dirancang pakai il</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['salut', 'dgn', 'aparat', 'yg', 'bubarkan', 'gerombolan', 'fpi', 'mau', 'pembela', 'atau', 'persaudaraan', 'islam', 'semua', 'dibubarkan', 'kita', 'semua', 'tahu']</t>
+          <t>['space', 'antar', 'baris', 'bukan', 'patokan', 'karena', 'bukan', 'dirancang', 'pakai', 'word', 'kebanyakan', 'poster', 'dirancang', 'pakai', 'il']</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['space', 'antar', 'baris', 'bukan', 'patokan', 'karena', 'bukan', 'dirancang', 'pakai', 'word', 'kebanyakan', 'poster', 'dirancang', 'pakai', 'il']</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['salut', 'aparat', 'bubarkan', 'gerombolan', 'fpi', 'pembela', 'persaudaraan', 'islam', 'dibubarkan']</t>
+          <t>&lt;FreqDist with 12 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['salut', 'aparat', 'bubar', 'gerombol', 'fpi', 'bela', 'saudara', 'islam', 'bubar']</t>
+          <t>['space', 'baris', 'patokan', 'dirancang', 'pakai', 'word', 'kebanyakan', 'poster', 'dirancang', 'pakai', 'il']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['space', 'baris', 'patok', 'rancang', 'pakai', 'word', 'banyak', 'poster', 'rancang', 'pakai', 'il']</t>
         </is>
       </c>
     </row>
@@ -1303,34 +1407,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>16368</v>
+        <v>27136</v>
       </c>
       <c r="C25" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">anies baru menemukan solusi banjir banjir itu mesti dilawan dgn prinsip yg kuat jadi insya allah ke depan kita </t>
+          <t>kedua foto itu foto yg berbeda</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['anies', 'baru', 'menemukan', 'solusi', 'banjir', 'banjir', 'itu', 'mesti', 'dilawan', 'dgn', 'prinsip', 'yg', 'kuat', 'jadi', 'insya', 'allah', 'ke', 'depan', 'kita']</t>
+          <t>['kedua', 'foto', 'itu', 'foto', 'yg', 'berbeda']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['kedua', 'foto', 'itu', 'foto', 'yang', 'berbeda']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>['anies', 'menemukan', 'solusi', 'banjir', 'banjir', 'mesti', 'dilawan', 'prinsip', 'kuat', 'insya', 'allah']</t>
+          <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['anies', 'temu', 'solusi', 'banjir', 'banjir', 'mesti', 'lawan', 'prinsip', 'kuat', 'insya', 'allah']</t>
+          <t>['foto', 'foto', 'berbeda']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['foto', 'foto', 'beda']</t>
         </is>
       </c>
     </row>
@@ -1339,34 +1448,39 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>16369</v>
+        <v>27137</v>
       </c>
       <c r="C26" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>komentar anies yg bikin malu dgn lantang anies berseru alhamdulillah antisipasi itu sudah dilakukan dari kemari</t>
+          <t>pembodohan publik yg dilakukn jokowi saat bilang teroris itu tdk ada kaitan agama skrg mengakar ke bawah isis itu</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>['komentar', 'anies', 'yg', 'bikin', 'malu', 'dgn', 'lantang', 'anies', 'berseru', 'alhamdulillah', 'antisipasi', 'itu', 'sudah', 'dilakukan', 'dari', 'kemari']</t>
+          <t>['pembodohan', 'publik', 'yg', 'dilakukn', 'jokowi', 'saat', 'bilang', 'teroris', 'itu', 'tdk', 'ada', 'kaitan', 'agama', 'skrg', 'mengakar', 'ke', 'bawah', 'isis', 'itu']</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['pembodohan', 'publik', 'yang', 'dilakukn', 'jokowi', 'saat', 'bilang', 'teroris', 'itu', 'tidak', 'ada', 'kaitan', 'agama', 'sekarang', 'mengakar', 'ke', 'bawah', 'isis', 'itu']</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>['komentar', 'anies', 'malu', 'lantang', 'anies', 'berseru', 'alhamdulillah', 'antisipasi', 'kemari']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>['komentar', 'anies', 'malu', 'lantang', 'anies', 'seru', 'alhamdulillah', 'antisipasi', 'kemari']</t>
+          <t>['pembodohan', 'publik', 'dilakukn', 'jokowi', 'teroris', 'kaitan', 'agama', 'mengakar', 'isis']</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>['bodoh', 'publik', 'dilakukn', 'jokowi', 'teroris', 'kait', 'agama', 'akar', 'isis']</t>
         </is>
       </c>
     </row>
@@ -1375,34 +1489,39 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>16370</v>
+        <v>27138</v>
       </c>
       <c r="C27" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>mesin boeing terbakar dan jatuh di atas denver usa pesawat ini berhasil pulang ke bandara asal</t>
+          <t>coba tunjukkan bro biar jelas kalau benar ini editan pembuktiannya maka saya hapus tapi dari kedua</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>['mesin', 'boeing', 'terbakar', 'dan', 'jatuh', 'di', 'atas', 'denver', 'usa', 'pesawat', 'ini', 'berhasil', 'pulang', 'ke', 'bandara', 'asal']</t>
+          <t>['coba', 'tunjukkan', 'bro', 'biar', 'jelas', 'kalau', 'benar', 'ini', 'editan', 'pembuktiannya', 'maka', 'saya', 'hapus', 'tapi', 'dari', 'kedua']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['coba', 'tunjukan', 'bro', 'biar', 'jelas', 'kalau', 'benar', 'ini', 'editan', 'pembuktiannya', 'maka', 'saya', 'hapus', 'tapi', 'dari', 'kedua']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['mesin', 'boeing', 'terbakar', 'jatuh', 'denver', 'usa', 'pesawat', 'berhasil', 'pulang', 'bandara']</t>
-        </is>
-      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['mesin', 'boeing', 'bakar', 'jatuh', 'denver', 'usa', 'pesawat', 'hasil', 'pulang', 'bandara']</t>
+          <t>['coba', 'tunjukan', 'bro', 'editan', 'pembuktiannya', 'hapus']</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>['coba', 'tunjuk', 'bro', 'edit', 'bukti', 'hapus']</t>
         </is>
       </c>
     </row>
@@ -1411,34 +1530,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>16371</v>
+        <v>27139</v>
       </c>
       <c r="C28" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>merinding mendengar saudara kita minta tolong terjebak banjir</t>
+          <t>masih lemah bro</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>['merinding', 'mendengar', 'saudara', 'kita', 'minta', 'tolong', 'terjebak', 'banjir']</t>
+          <t>['masih', 'lemah', 'bro']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['masih', 'lemah', 'bro']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>['merinding', 'mendengar', 'saudara', 'tolong', 'terjebak', 'banjir']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['merinding', 'dengar', 'saudara', 'tolong', 'jebak', 'banjir']</t>
+          <t>['lemah', 'bro']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['lemah', 'bro']</t>
         </is>
       </c>
     </row>
@@ -1447,34 +1571,35 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>16372</v>
+        <v>27140</v>
       </c>
       <c r="C29" t="n">
-        <v>205</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>hanyut dalam tidur</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>['hanyut', 'dalam', 'tidur']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>['hanyut', 'tidur']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['hanyut', 'tidur']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1483,34 +1608,39 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>16373</v>
+        <v>27141</v>
       </c>
       <c r="C30" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>inovasi warga dlm menanggulangi banjir</t>
+          <t>sukandar jgn pergi mbak anda cuma dijadikan komoditi youtube dia doang dia itu sampah yg gak perlu dibesarin</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>['inovasi', 'warga', 'dlm', 'menanggulangi', 'banjir']</t>
+          <t>['sukandar', 'jgn', 'pergi', 'mbak', 'anda', 'cuma', 'dijadikan', 'komoditi', 'youtube', 'dia', 'doang', 'dia', 'itu', 'sampah', 'yg', 'gak', 'perlu', 'dibesarin']</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sukandar', 'jangan', 'pergi', 'mbak', 'anda', 'cuma', 'dijadikan', 'komoditi', 'youtube', 'dia', 'doang', 'dia', 'itu', 'sampah', 'yang', 'tidak', 'perlu', 'dibesarin']</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>['inovasi', 'warga', 'dlm', 'menanggulangi', 'banjir']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['inovasi', 'warga', 'dlm', 'tanggulang', 'banjir']</t>
+          <t>['sukandar', 'pergi', 'mbak', 'dijadikan', 'komoditi', 'youtube', 'doang', 'sampah', 'dibesarin']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['sukandar', 'pergi', 'mbak', 'jadi', 'komoditi', 'youtube', 'doang', 'sampah', 'dibesarin']</t>
         </is>
       </c>
     </row>
@@ -1519,34 +1649,35 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>16374</v>
+        <v>27142</v>
       </c>
       <c r="C31" t="n">
-        <v>205</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>rezeki anak soleh yg sedang kena banjir</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['rezeki', 'anak', 'soleh', 'yg', 'sedang', 'kena', 'banjir']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['rezeki', 'anak', 'soleh', 'kena', 'banjir']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['rezeki', 'anak', 'soleh', 'kena', 'banjir']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1686,39 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>16375</v>
+        <v>27143</v>
       </c>
       <c r="C32" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>katanya jam air surut skrg bilang air kiriman dr depok sejak kapan banjir jakarta bkn kiriman dr jaman purbaka</t>
+          <t>dasar oky saya pastikan bukan cebong ya ini buktinya ufck jokowi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>['katanya', 'jam', 'air', 'surut', 'skrg', 'bilang', 'air', 'kiriman', 'dr', 'depok', 'sejak', 'kapan', 'banjir', 'jakarta', 'bkn', 'kiriman', 'dr', 'jaman', 'purbaka']</t>
+          <t>['dasar', 'oky', 'saya', 'pastikan', 'bukan', 'cebong', 'ya', 'ini', 'buktinya', 'ufck', 'jokowi']</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
+          <t>['dasar', 'oky', 'saya', 'pastikan', 'bukan', 'cebong', 'ya', 'ini', 'buktinya', 'ufck', 'jokowi']</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>['jam', 'air', 'surut', 'skrg', 'air', 'kiriman', 'dr', 'depok', 'banjir', 'jakarta', 'bkn', 'kiriman', 'dr', 'jaman', 'purbaka']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['jam', 'air', 'surut', 'skrg', 'air', 'kirim', 'dr', 'depok', 'banjir', 'jakarta', 'bkn', 'kirim', 'dr', 'jaman', 'purbaka']</t>
+          <t>['dasar', 'oky', 'pastikan', 'cebong', 'buktinya', 'ufck', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>['dasar', 'oky', 'pasti', 'cebong', 'bukti', 'ufck', 'jokowi']</t>
         </is>
       </c>
     </row>
@@ -1591,34 +1727,35 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>16376</v>
+        <v>27144</v>
       </c>
       <c r="C33" t="n">
-        <v>205</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>pocong ini disuruh pulang nanti kainnya basah kena banjir</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['pocong', 'ini', 'disuruh', 'pulang', 'nanti', 'kainnya', 'basah', 'kena', 'banjir']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['pocong', 'disuruh', 'pulang', 'kainnya', 'basah', 'kena', 'banjir']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['pocong', 'suruh', 'pulang', 'kain', 'basah', 'kena', 'banjir']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1627,34 +1764,35 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>16377</v>
+        <v>27145</v>
       </c>
       <c r="C34" t="n">
-        <v>205</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>solusi banjir adalah download app baca bgmn naik ke meja lalu ke atap air banjir jgn diminum</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['solusi', 'banjir', 'adalah', 'download', 'app', 'baca', 'bgmn', 'naik', 'ke', 'meja', 'lalu', 'ke', 'atap', 'air', 'banjir', 'jgn', 'diminum']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['solusi', 'banjir', 'download', 'app', 'baca', 'bgmn', 'meja', 'atap', 'air', 'banjir', 'diminum']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['solusi', 'banjir', 'download', 'app', 'baca', 'bgmn', 'meja', 'atap', 'air', 'banjir', 'minum']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1663,34 +1801,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>16378</v>
+        <v>27146</v>
       </c>
       <c r="C35" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>banjir begini tolong maskernya dipakai atas dan bawah</t>
+          <t>marbot sudah tertangkap postingan saya pun sdh dihapus ya terlalu sadis</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>['banjir', 'begini', 'tolong', 'maskernya', 'dipakai', 'atas', 'dan', 'bawah']</t>
+          <t>['marbot', 'sudah', 'tertangkap', 'postingan', 'saya', 'pun', 'sdh', 'dihapus', 'ya', 'terlalu', 'sadis']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['marbut', 'sudah', 'tertangkap', 'postingan', 'saya', 'pun', 'sudah', 'dihapus', 'ya', 'terlalu', 'sadis']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>['banjir', 'tolong', 'maskernya', 'dipakai']</t>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['banjir', 'tolong', 'masker', 'pakai']</t>
+          <t>['marbut', 'tertangkap', 'postingan', 'dihapus', 'sadis']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['marbut', 'tangkap', 'postingan', 'hapus', 'sadis']</t>
         </is>
       </c>
     </row>
@@ -1699,34 +1842,35 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>16379</v>
+        <v>27147</v>
       </c>
       <c r="C36" t="n">
-        <v>205</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>rt kalau mengikutkan data bpbd tahun ada fakta yang disembunyikan pemprov dki jumlah pengungsi meningkat</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>['rt', 'kalau', 'mengikutkan', 'data', 'bpbd', 'tahun', 'ada', 'fakta', 'yang', 'disembunyikan', 'pemprov', 'dki', 'jumlah', 'pengungsi', 'meningkat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>['mengikutkan', 'data', 'bpbd', 'fakta', 'disembunyikan', 'pemprov', 'dki', 'pengungsi', 'meningkat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>['ikut', 'data', 'bpbd', 'fakta', 'sembunyi', 'pemprov', 'dki', 'ungsi', 'tingkat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1735,34 +1879,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>16380</v>
+        <v>27148</v>
       </c>
       <c r="C37" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>warganya bahagia</t>
+          <t>athifah</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['warganya', 'bahagia']</t>
+          <t>['athifah']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['athifah']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['warganya', 'bahagia']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['warga', 'bahagia']</t>
+          <t>['athifah']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['athifah']</t>
         </is>
       </c>
     </row>
@@ -1771,34 +1920,35 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>16381</v>
+        <v>27149</v>
       </c>
       <c r="C38" t="n">
-        <v>205</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>empat perawat pria dilaporkan melanggar pasal penistaan agama karena memandikan jenazah wanita perlu diperhatikan</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['empat', 'perawat', 'pria', 'dilaporkan', 'melanggar', 'pasal', 'penistaan', 'agama', 'karena', 'memandikan', 'jenazah', 'wanita', 'perlu', 'diperhatikan']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>['perawat', 'pria', 'dilaporkan', 'melanggar', 'pasal', 'penistaan', 'agama', 'memandikan', 'jenazah', 'wanita', 'diperhatikan']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['awat', 'pria', 'lapor', 'langgar', 'pasal', 'nista', 'agama', 'mandi', 'jenazah', 'wanita', 'perhati']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1807,34 +1957,35 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>16382</v>
+        <v>27150</v>
       </c>
       <c r="C39" t="n">
-        <v>205</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>bot anies tdk ada urusan ttg covid dia malah yg menyebarkan covid di kerumunan rizieq masalah covid adal</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>['bot', 'anies', 'tdk', 'ada', 'urusan', 'ttg', 'covid', 'dia', 'malah', 'yg', 'menyebarkan', 'covid', 'di', 'kerumunan', 'rizieq', 'masalah', 'covid', 'adal']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['bot', 'anies', 'urusan', 'ttg', 'covid', 'menyebarkan', 'covid', 'kerumunan', 'rizieq', 'covid', 'adal']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['bot', 'anies', 'urus', 'ttg', 'covid', 'sebar', 'covid', 'kerumun', 'rizieq', 'covid', 'adal']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1843,34 +1994,35 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>16383</v>
+        <v>27151</v>
       </c>
       <c r="C40" t="n">
-        <v>205</v>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>kalau anda melihat air banjir makin tinggi tolong introspeksi diri anda sendiri anda mungkin lagi berasumsi lagi</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['kalau', 'anda', 'melihat', 'air', 'banjir', 'makin', 'tinggi', 'tolong', 'introspeksi', 'diri', 'anda', 'sendiri', 'anda', 'mungkin', 'lagi', 'berasumsi', 'lagi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['air', 'banjir', 'tolong', 'introspeksi', 'berasumsi']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['air', 'banjir', 'tolong', 'introspeksi', 'asumsi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1879,34 +2031,35 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>16384</v>
+        <v>27152</v>
       </c>
       <c r="C41" t="n">
-        <v>205</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>ini bukti di awal covid who setuju pemakaian klorokuin dari minimnya pilihan obat covid</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>['ini', 'bukti', 'di', 'awal', 'covid', 'who', 'setuju', 'pemakaian', 'klorokuin', 'dari', 'minimnya', 'pilihan', 'obat', 'covid']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['bukti', 'covid', 'who', 'setuju', 'pemakaian', 'klorokuin', 'minimnya', 'pilihan', 'obat', 'covid']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['bukti', 'covid', 'who', 'tuju', 'pakai', 'klorokuin', 'minim', 'pilih', 'obat', 'covid']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1915,34 +2068,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>16385</v>
+        <v>27153</v>
       </c>
       <c r="C42" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>sudah benar indonesia menjalin kerja sama dlm membangun jaringan  dgn sumber  yaitu china us dan eu semakin te</t>
+          <t>athifah justru itu juga diperhatikan juga bisa saja poster awalnya</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>['sudah', 'benar', 'indonesia', 'menjalin', 'kerja', 'sama', 'dlm', 'membangun', 'jaringan', 'dgn', 'sumber', 'yaitu', 'china', 'us', 'dan', 'eu', 'semakin', 'te']</t>
+          <t>['athifah', 'justru', 'itu', 'juga', 'diperhatikan', 'juga', 'bisa', 'saja', 'poster', 'awalnya']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['athifah', 'justru', 'itu', 'juga', 'diperhatikan', 'juga', 'bisa', 'saja', 'poster', 'awalnya']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>['indonesia', 'menjalin', 'kerja', 'dlm', 'membangun', 'jaringan', 'sumber', 'china', 'us', 'eu', 'te']</t>
+          <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['indonesia', 'jalin', 'kerja', 'dlm', 'bangun', 'jaring', 'sumber', 'china', 'us', 'eu', 'te']</t>
+          <t>['athifah', 'diperhatikan', 'poster']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['athifah', 'perhati', 'poster']</t>
         </is>
       </c>
     </row>
@@ -1951,34 +2109,39 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>16386</v>
+        <v>27154</v>
       </c>
       <c r="C43" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">ketua ylbhiasfinawatimengatakan jokowi melakukan hoax dan melanggar uu ite saat bilang klorokuin bisa sembuhkan </t>
+          <t>kalau menghormati tdk begitu mau foto orang tua kita dipajang di mana utk bahan larangan</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['ketua', 'ylbhiasfinawatimengatakan', 'jokowi', 'melakukan', 'hoax', 'dan', 'melanggar', 'uu', 'ite', 'saat', 'bilang', 'klorokuin', 'bisa', 'sembuhkan']</t>
+          <t>['kalau', 'menghormati', 'tdk', 'begitu', 'mau', 'foto', 'orang', 'tua', 'kita', 'dipajang', 'di', 'mana', 'utk', 'bahan', 'larangan']</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['kalau', 'menghormati', 'tidak', 'begitu', 'mau', 'foto', 'orang', 'tua', 'kita', 'dipajang', 'di', 'mana', 'untuk', 'bahan', 'larangan']</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['ketua', 'ylbhiasfinawatimengatakan', 'jokowi', 'hoax', 'melanggar', 'uu', 'ite', 'klorokuin', 'sembuhkan']</t>
+          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['ketua', 'ylbhiasfinawatimengatakan', 'jokowi', 'hoax', 'langgar', 'uu', 'ite', 'klorokuin', 'sembuh']</t>
+          <t>['menghormati', 'foto', 'orang', 'tua', 'dipajang', 'bahan', 'larangan']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['hormat', 'foto', 'orang', 'tua', 'pajang', 'bahan', 'larang']</t>
         </is>
       </c>
     </row>
@@ -1987,34 +2150,35 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>16387</v>
+        <v>27155</v>
       </c>
       <c r="C44" t="n">
-        <v>205</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>geli selalu pesan kamar bersebelahan dgn connecting room ayus apa diberi kerja lembur utk tekan hal lain yg buk</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>['geli', 'selalu', 'pesan', 'kamar', 'bersebelahan', 'dgn', 'connecting', 'room', 'ayus', 'apa', 'diberi', 'kerja', 'lembur', 'utk', 'tekan', 'hal', 'lain', 'yg', 'buk']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>['geli', 'pesan', 'kamar', 'bersebelahan', 'connecting', 'room', 'ayus', 'kerja', 'lembur', 'tekan', 'buk']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['geli', 'pesan', 'kamar', 'bahan', 'connecting', 'room', 'ayus', 'kerja', 'lembur', 'tekan', 'buk']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2023,34 +2187,35 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>16388</v>
+        <v>27156</v>
       </c>
       <c r="C45" t="n">
-        <v>205</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>jelas ya di sini anies menghimbau seluruh warga jangan menyumbang banjir ke luar dari area rumah atau pekarangan ru</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['jelas', 'ya', 'di', 'sini', 'anies', 'menghimbau', 'seluruh', 'warga', 'jangan', 'menyumbang', 'banjir', 'ke', 'luar', 'dari', 'area', 'rumah', 'atau', 'pekarangan', 'ru']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['anies', 'menghimbau', 'warga', 'menyumbang', 'banjir', 'area', 'rumah', 'pekarangan', 'ru']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['anies', 'menghimbau', 'warga', 'sumbang', 'banjir', 'area', 'rumah', 'pekarang', 'ru']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2059,34 +2224,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>16389</v>
+        <v>27157</v>
       </c>
       <c r="C46" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">satwa liar pun terganggu dan mulai keluar dari sarang mereka terlihat seekor ular piton besar sdg merayap keluar </t>
+          <t>masal</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['satwa', 'liar', 'pun', 'terganggu', 'dan', 'mulai', 'keluar', 'dari', 'sarang', 'mereka', 'terlihat', 'seekor', 'ular', 'piton', 'besar', 'sdg', 'merayap', 'keluar']</t>
+          <t>['masal']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['masal']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['satwa', 'liar', 'terganggu', 'sarang', 'seekor', 'ular', 'piton', 'sdg', 'merayap']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['satwa', 'liar', 'ganggu', 'sarang', 'ekor', 'ular', 'piton', 'sdg', 'rayap']</t>
+          <t>['masal']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['masal']</t>
         </is>
       </c>
     </row>
@@ -2095,34 +2265,39 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>16390</v>
+        <v>27158</v>
       </c>
       <c r="C47" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>jelas ya di sini anies menghimbau seluruh warga jangan menyumbang banjir ke luar dari area rumah atau pekarangan ru</t>
+          <t>ulama saja banyak bohongnya apalagi dosen apalagi fakultas agama</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>['jelas', 'ya', 'di', 'sini', 'anies', 'menghimbau', 'seluruh', 'warga', 'jangan', 'menyumbang', 'banjir', 'ke', 'luar', 'dari', 'area', 'rumah', 'atau', 'pekarangan', 'ru']</t>
+          <t>['ulama', 'saja', 'banyak', 'bohongnya', 'apalagi', 'dosen', 'apalagi', 'fakultas', 'agama']</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['ulama', 'saja', 'banyak', 'bohongnya', 'apalagi', 'dosen', 'apalagi', 'fakultas', 'agama']</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>['anies', 'menghimbau', 'warga', 'menyumbang', 'banjir', 'area', 'rumah', 'pekarangan', 'ru']</t>
+          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>['anies', 'menghimbau', 'warga', 'sumbang', 'banjir', 'area', 'rumah', 'pekarang', 'ru']</t>
+          <t>['ulama', 'bohongnya', 'dosen', 'fakultas', 'agama']</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>['ulama', 'bohong', 'dosen', 'fakultas', 'agama']</t>
         </is>
       </c>
     </row>
@@ -2131,34 +2306,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>16391</v>
+        <v>27159</v>
       </c>
       <c r="C48" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>terima kasih anies sdh disumbangi ikan utk makan malam nanti sering banjir lagi ya pak anies</t>
+          <t>mari kita dengar bro yusuf moh tentang anies baswedan kerugian terbesar masyarakat dki adalah mempercayai janji da</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'anies', 'sdh', 'disumbangi', 'ikan', 'utk', 'makan', 'malam', 'nanti', 'sering', 'banjir', 'lagi', 'ya', 'pak', 'anies']</t>
+          <t>['mari', 'kita', 'dengar', 'bro', 'yusuf', 'moh', 'tentang', 'anies', 'baswedan', 'kerugian', 'terbesar', 'masyarakat', 'dki', 'adalah', 'mempercayai', 'janji', 'da']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['mari', 'kita', 'dengar', 'bro', 'yusuf', 'tak, mau', 'tentang', 'anies', 'baswedan', 'kerugian', 'terbesar', 'masyarakat', 'daerah, khusus, ibukota', 'adalah', 'memercayai', 'janji', 'dan']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'anies', 'disumbangi', 'ikan', 'makan', 'malam', 'banjir', 'anies']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['terima', 'kasih', 'anies', 'sumbang', 'ikan', 'makan', 'malam', 'banjir', 'anies']</t>
+          <t>['mari', 'dengar', 'bro', 'yusuf', 'tak, mau', 'anies', 'baswedan', 'kerugian', 'terbesar', 'masyarakat', 'daerah, khusus, ibukota', 'memercayai', 'janji']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['mari', 'dengar', 'bro', 'yusuf', 'tak mau', 'anies', 'baswedan', 'rugi', 'besar', 'masyarakat', 'daerah khusus ibukota', 'percaya', 'janji']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2347,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>16392</v>
+        <v>27160</v>
       </c>
       <c r="C49" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>jangan terlalu cengeng cuma daerah yg berdampak banjir cuma jumlah kecil yg ngungsi ditangani sendiri tet</t>
+          <t>mohon posting klarifikasinya kalau iya maka</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['jangan', 'terlalu', 'cengeng', 'cuma', 'daerah', 'yg', 'berdampak', 'banjir', 'cuma', 'jumlah', 'kecil', 'yg', 'ngungsi', 'ditangani', 'sendiri', 'tet']</t>
+          <t>['mohon', 'posting', 'klarifikasinya', 'kalau', 'iya', 'maka']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['mohon', 'posting', 'klarifikasinya', 'kalau', 'iya', 'maka']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['cengeng', 'daerah', 'berdampak', 'banjir', 'ngungsi', 'ditangani', 'tet']</t>
+          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['cengeng', 'daerah', 'dampak', 'banjir', 'ngungsi', 'tangan', 'tet']</t>
+          <t>['mohon', 'posting', 'klarifikasinya', 'iya']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['mohon', 'posting', 'klarifikasi', 'iya']</t>
         </is>
       </c>
     </row>
@@ -2203,34 +2388,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>16393</v>
+        <v>27161</v>
       </c>
       <c r="C50" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>rt ada yang tau kah orang yang ngoceh kemarin ini kemana ya sekarang pingin ngasih sarung moncongnya</t>
+          <t xml:space="preserve">jangan gegabah blunder jokowi bakal bangkitkan kembali hambalang dari mati suri masalah utama hambalang adalah </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['rt', 'ada', 'yang', 'tau', 'kah', 'orang', 'yang', 'ngoceh', 'kemarin', 'ini', 'kemana', 'ya', 'sekarang', 'pingin', 'ngasih', 'sarung', 'moncongnya']</t>
+          <t>['jangan', 'gegabah', 'blunder', 'jokowi', 'bakal', 'bangkitkan', 'kembali', 'hambalang', 'dari', 'mati', 'suri', 'masalah', 'utama', 'hambalang', 'adalah']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['jangan', 'gegabah', 'blunder', 'jokowi', 'bakal', 'bangkitkan', 'kembali', 'hambalang', 'dari', 'mati', 'suri', 'masalah', 'utama', 'hambalang', 'adalah']</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>['kah', 'orang', 'ngoceh', 'kemarin', 'kemana', 'pingin', 'ngasih', 'sarung', 'moncongnya']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['kah', 'orang', 'ngoceh', 'kemarin', 'mana', 'pingin', 'ngasih', 'sarung', 'moncong']</t>
+          <t>['gegabah', 'blunder', 'jokowi', 'bangkitkan', 'hambalang', 'mati', 'suri', 'utama', 'hambalang']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['gegabah', 'blunder', 'jokowi', 'bangkit', 'hambalang', 'mati', 'suri', 'utama', 'hambalang']</t>
         </is>
       </c>
     </row>
@@ -2239,34 +2429,35 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>16394</v>
+        <v>27162</v>
       </c>
       <c r="C51" t="n">
-        <v>205</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>anies bukannya prediksi air surut tapi memberi target ke air utk surut dalam jam seolah ia sdh bekerja keras dg</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>['anies', 'bukannya', 'prediksi', 'air', 'surut', 'tapi', 'memberi', 'target', 'ke', 'air', 'utk', 'surut', 'dalam', 'jam', 'seolah', 'ia', 'sdh', 'bekerja', 'keras', 'dg']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>['anies', 'prediksi', 'air', 'surut', 'target', 'air', 'surut', 'jam', 'keras']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['anies', 'prediksi', 'air', 'surut', 'target', 'air', 'surut', 'jam', 'keras']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2275,34 +2466,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>16395</v>
+        <v>27163</v>
       </c>
       <c r="C52" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>cipining is under water one meter</t>
+          <t>dipersilahkan</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['cipining', 'is', 'under', 'water', 'one', 'meter']</t>
+          <t>['dipersilahkan']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['dipersilakan']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['cipining', 'is', 'under', 'water', 'one', 'meter']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['cipining', 'is', 'under', 'water', 'one', 'meter']</t>
+          <t>['dipersilakan']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['sila']</t>
         </is>
       </c>
     </row>
@@ -2311,34 +2507,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>16396</v>
+        <v>27164</v>
       </c>
       <c r="C53" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>kok bisa jalan tol juga ikut kebanjiran ini tanda kuat anies sama sekali tdk peduli dgn program pencegahan banjir</t>
+          <t xml:space="preserve">monggo disimak bahwa kedua foto itu memang diambil pada waktu yg berbeda angle yg berbeda dan poster yg berbeda </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>['kok', 'bisa', 'jalan', 'tol', 'juga', 'ikut', 'kebanjiran', 'ini', 'tanda', 'kuat', 'anies', 'sama', 'sekali', 'tdk', 'peduli', 'dgn', 'program', 'pencegahan', 'banjir']</t>
+          <t>['monggo', 'disimak', 'bahwa', 'kedua', 'foto', 'itu', 'memang', 'diambil', 'pada', 'waktu', 'yg', 'berbeda', 'angle', 'yg', 'berbeda', 'dan', 'poster', 'yg', 'berbeda']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['monggo', 'disimak', 'bahwa', 'kedua', 'foto', 'itu', 'memang', 'diambil', 'pada', 'waktu', 'yang', 'berbeda', 'angle', 'yang', 'berbeda', 'dan', 'poster', 'yang', 'berbeda']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>['jalan', 'tol', 'kebanjiran', 'tanda', 'kuat', 'anies', 'peduli', 'program', 'pencegahan', 'banjir']</t>
+          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['jalan', 'tol', 'banjir', 'tanda', 'kuat', 'anies', 'peduli', 'program', 'cegah', 'banjir']</t>
+          <t>['monggo', 'disimak', 'foto', 'diambil', 'berbeda', 'angle', 'berbeda', 'poster', 'berbeda']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['monggo', 'simak', 'foto', 'ambil', 'beda', 'angle', 'beda', 'poster', 'beda']</t>
         </is>
       </c>
     </row>
@@ -2347,34 +2548,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>16397</v>
+        <v>27165</v>
       </c>
       <c r="C54" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>penyakit kulit pasti sgt bisa menjangkit para pedagang yg amankan dagangan mereka di hari biasa aja yg namanya pa</t>
+          <t>march lihat ubin keramik di belakang dan bandingkan dgn yg disebut asli semua di lokasi yg sama beda pos</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['penyakit', 'kulit', 'pasti', 'sgt', 'bisa', 'menjangkit', 'para', 'pedagang', 'yg', 'amankan', 'dagangan', 'mereka', 'di', 'hari', 'biasa', 'aja', 'yg', 'namanya', 'pa']</t>
+          <t>['march', 'lihat', 'ubin', 'keramik', 'di', 'belakang', 'dan', 'bandingkan', 'dgn', 'yg', 'disebut', 'asli', 'semua', 'di', 'lokasi', 'yg', 'sama', 'beda', 'pos']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
+          <t>['march', 'lihat', 'ubin', 'keramik', 'di', 'belakang', 'dan', 'bandingkan', 'dengan', 'yang', 'disebut', 'asli', 'semua', 'di', 'lokasi', 'yang', 'sama', 'beda', 'pos']</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>['penyakit', 'kulit', 'sgt', 'menjangkit', 'pedagang', 'amankan', 'dagangan', 'namanya', 'pa']</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['sakit', 'kulit', 'sgt', 'jangkit', 'dagang', 'aman', 'dagang', 'nama', 'pa']</t>
+          <t>['march', 'lihat', 'ubin', 'keramik', 'bandingkan', 'asli', 'lokasi', 'beda', 'pos']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['march', 'lihat', 'ubin', 'keramik', 'banding', 'asli', 'lokasi', 'beda', 'pos']</t>
         </is>
       </c>
     </row>
@@ -2383,34 +2589,35 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>16398</v>
+        <v>27166</v>
       </c>
       <c r="C55" t="n">
-        <v>205</v>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>kasihan banget sodara kita</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>['kasihan', 'banget', 'sodara', 'kita']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>['kasihan', 'banget', 'sodara']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['kasihan', 'banget', 'sodara']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2419,34 +2626,39 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>16399</v>
+        <v>27167</v>
       </c>
       <c r="C56" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>anies ada di mana</t>
+          <t>tdk benar editan kalau editan berarti editor akan mengambil gambar yg sama lalu edit katanya perhatikan angle</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['anies', 'ada', 'di', 'mana']</t>
+          <t>['tdk', 'benar', 'editan', 'kalau', 'editan', 'berarti', 'editor', 'akan', 'mengambil', 'gambar', 'yg', 'sama', 'lalu', 'edit', 'katanya', 'perhatikan', 'angle']</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['tidak', 'benar', 'editan', 'kalau', 'editan', 'berarti', 'editor', 'akan', 'mengambil', 'gambar', 'yang', 'sama', 'lalu', 'edit', 'katanya', 'perhatikan', 'angle']</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['anies']</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['anies']</t>
+          <t>['editan', 'editan', 'editor', 'mengambil', 'gambar', 'edit', 'perhatikan', 'angle']</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>['edit', 'edit', 'editor', 'ambil', 'gambar', 'edit', 'perhati', 'angle']</t>
         </is>
       </c>
     </row>
@@ -2455,34 +2667,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>16400</v>
+        <v>27168</v>
       </c>
       <c r="C57" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>jemaah iseng dicampur humor interupsi lalu sang mualaf yahya waloni mau memenggal kepala jemaah malah janjian mau</t>
+          <t>saya tambahkan mbak irene rule pertama apa saja yg diberitakan oleh adalah sampah ditambah lagi karak</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['jemaah', 'iseng', 'dicampur', 'humor', 'interupsi', 'lalu', 'sang', 'mualaf', 'yahya', 'waloni', 'mau', 'memenggal', 'kepala', 'jemaah', 'malah', 'janjian', 'mau']</t>
+          <t>['saya', 'tambahkan', 'mbak', 'irene', 'rule', 'pertama', 'apa', 'saja', 'yg', 'diberitakan', 'oleh', 'adalah', 'sampah', 'ditambah', 'lagi', 'karak']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['saya', 'tambahkan', 'mbak', 'irene', 'rule', 'pertama', 'apa', 'saja', 'yang', 'diberitakan', 'oleh', 'adalah', 'sampah', 'ditambah', 'lagi', 'karak']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['jemaah', 'iseng', 'dicampur', 'humor', 'interupsi', 'sang', 'mualaf', 'yahya', 'waloni', 'memenggal', 'kepala', 'jemaah', 'janjian']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['jemaah', 'iseng', 'campur', 'humor', 'interupsi', 'sang', 'mualaf', 'yahya', 'waloni', 'penggal', 'kepala', 'jemaah', 'janji']</t>
+          <t>['tambahkan', 'mbak', 'irene', 'rule', 'diberitakan', 'sampah', 'ditambah', 'karak']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['tambah', 'mbak', 'irene', 'rule', 'berita', 'sampah', 'tambah', 'karak']</t>
         </is>
       </c>
     </row>
@@ -2491,34 +2708,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>16401</v>
+        <v>27169</v>
       </c>
       <c r="C58" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>part thread lucu barisberbaris</t>
+          <t>rt ohhh ternyata sales marketing dp apa kabar rumah dp rupiah nji</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>['part', 'thread', 'lucu', 'barisberbaris']</t>
+          <t>['rt', 'ohhh', 'ternyata', 'sales', 'marketing', 'dp', 'apa', 'kabar', 'rumah', 'dp', 'rupiah', 'nji']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['rt', 'ohhh', 'ternyata', 'sales', 'marketing', 'uang, muka', 'apa', 'kabar', 'rumah', 'uang, muka', 'rupiah', 'nji']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>['part', 'thread', 'lucu', 'barisberbaris']</t>
+          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['part', 'thread', 'lucu', 'barisberbaris']</t>
+          <t>['ohhh', 'sales', 'marketing', 'uang, muka', 'kabar', 'rumah', 'uang, muka', 'rupiah', 'nji']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['ohhh', 'sales', 'marketing', 'uang muka', 'kabar', 'rumah', 'uang muka', 'rupiah', 'nji']</t>
         </is>
       </c>
     </row>
@@ -2527,34 +2749,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>16402</v>
+        <v>27170</v>
       </c>
       <c r="C59" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>part thread lucu barisberbaris</t>
+          <t xml:space="preserve">mui kecam keras rencana sri lanka tutup sekolah islamlarang burkak enak ya di sini penganut islam sibuk larang </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['part', 'thread', 'lucu', 'barisberbaris']</t>
+          <t>['mui', 'kecam', 'keras', 'rencana', 'sri', 'lanka', 'tutup', 'sekolah', 'islamlarang', 'burkak', 'enak', 'ya', 'di', 'sini', 'penganut', 'islam', 'sibuk', 'larang']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>['majelis, ulama, indonesia', 'kecam', 'keras', 'rencana', 'sri', 'lanka', 'tutup', 'sekolah', 'islamlarang', 'burkak', 'enak', 'ya', 'di', 'sini', 'penganut', 'islam', 'sibuk', 'larang']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['part', 'thread', 'lucu', 'barisberbaris']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['part', 'thread', 'lucu', 'barisberbaris']</t>
+          <t>['majelis, ulama, indonesia', 'kecam', 'keras', 'rencana', 'sri', 'lanka', 'tutup', 'sekolah', 'islamlarang', 'burkak', 'enak', 'penganut', 'islam', 'sibuk', 'larang']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['majelis ulama indonesia', 'kecam', 'keras', 'rencana', 'sri', 'lanka', 'tutup', 'sekolah', 'islamlarang', 'burkak', 'enak', 'anut', 'islam', 'sibuk', 'larang']</t>
         </is>
       </c>
     </row>
@@ -2563,34 +2790,35 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>16403</v>
+        <v>27171</v>
       </c>
       <c r="C60" t="n">
-        <v>205</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>part thread lucu barisberbaris</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>['part', 'thread', 'lucu', 'barisberbaris']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>['part', 'thread', 'lucu', 'barisberbaris']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['part', 'thread', 'lucu', 'barisberbaris']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2599,34 +2827,39 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>16404</v>
+        <v>27172</v>
       </c>
       <c r="C61" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>pesona indonesia part nikmati negeri ini nikmati kebersamaan tanpa ada kesenjangan di antara kita</t>
+          <t xml:space="preserve">banner ini tdk editan sudah berkembang sejak thn lalu bbrp kesaksian </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['pesona', 'indonesia', 'part', 'nikmati', 'negeri', 'ini', 'nikmati', 'kebersamaan', 'tanpa', 'ada', 'kesenjangan', 'di', 'antara', 'kita']</t>
+          <t>['banner', 'ini', 'tdk', 'editan', 'sudah', 'berkembang', 'sejak', 'thn', 'lalu', 'bbrp', 'kesaksian']</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 14 outcomes&gt;</t>
+          <t>['banner', 'ini', 'tidak', 'editan', 'sudah', 'berkembang', 'sejak', 'tahun', 'lalu', 'beberapa', 'kesaksian']</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['pesona', 'indonesia', 'part', 'nikmati', 'negeri', 'nikmati', 'kebersamaan', 'kesenjangan']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['pesona', 'indonesia', 'part', 'nikmat', 'negeri', 'nikmat', 'sama', 'senjang']</t>
+          <t>['banner', 'editan', 'berkembang', 'kesaksian']</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>['banner', 'edit', 'kembang', 'saksi']</t>
         </is>
       </c>
     </row>
@@ -2635,34 +2868,35 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>16405</v>
+        <v>27173</v>
       </c>
       <c r="C62" t="n">
-        <v>205</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>pesona indonesia part nikmati beragam kita di negeri yg indah ini kocak sedih kreatif unik</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>['pesona', 'indonesia', 'part', 'nikmati', 'beragam', 'kita', 'di', 'negeri', 'yg', 'indah', 'ini', 'kocak', 'sedih', 'kreatif', 'unik']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>['pesona', 'indonesia', 'part', 'nikmati', 'beragam', 'negeri', 'indah', 'kocak', 'sedih', 'kreatif', 'unik']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>['pesona', 'indonesia', 'part', 'nikmat', 'agam', 'negeri', 'indah', 'kocak', 'sedih', 'kreatif', 'unik']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2671,34 +2905,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>16406</v>
+        <v>27174</v>
       </c>
       <c r="C63" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>chess fun world hikaru nakamura was shocked by the opponent sacrificing his king</t>
+          <t>jend ah nasution ditindas soeharto dicap pki dihilangkan hak politik mari kita kenang terus jenderal yg tanpa</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>['chess', 'fun', 'world', 'hikaru', 'nakamura', 'was', 'shocked', 'by', 'the', 'opponent', 'sacrificing', 'his', 'king']</t>
+          <t>['jend', 'ah', 'nasution', 'ditindas', 'soeharto', 'dicap', 'pki', 'dihilangkan', 'hak', 'politik', 'mari', 'kita', 'kenang', 'terus', 'jenderal', 'yg', 'tanpa']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
+          <t>['jend', 'ah', 'nasution', 'ditindas', 'soeharto', 'dicap', 'partai, komunis, indonesia', 'dihilangkan', 'hak', 'politik', 'mari', 'kita', 'kenang', 'terus', 'jenderal', 'yang', 'tanpa']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>['chess', 'fun', 'world', 'hikaru', 'nakamura', 'was', 'shocked', 'by', 'the', 'opponent', 'sacrificing', 'his', 'king']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['chess', 'fun', 'world', 'hikaru', 'nakamura', 'was', 'shocked', 'by', 'the', 'opponent', 'sacrificing', 'his', 'king']</t>
+          <t>['jend', 'ah', 'nasution', 'ditindas', 'soeharto', 'dicap', 'partai, komunis, indonesia', 'dihilangkan', 'hak', 'politik', 'mari', 'kenang', 'jenderal']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['jend', 'ah', 'nasution', 'tindas', 'soeharto', 'cap', 'partai komunis indonesia', 'hilang', 'hak', 'politik', 'mari', 'kenang', 'jenderal']</t>
         </is>
       </c>
     </row>
@@ -2707,34 +2946,35 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>16407</v>
+        <v>27175</v>
       </c>
       <c r="C64" t="n">
-        <v>205</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>kalau dilihat dari rencana tetap mau lanjutkan formulae di anies terikat dgn kontrak yg merugikan negara sam</t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>['kalau', 'dilihat', 'dari', 'rencana', 'tetap', 'mau', 'lanjutkan', 'formulae', 'di', 'anies', 'terikat', 'dgn', 'kontrak', 'yg', 'merugikan', 'negara', 'sam']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>['rencana', 'lanjutkan', 'formulae', 'anies', 'terikat', 'kontrak', 'merugikan', 'negara', 'sam']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['rencana', 'lanjut', 'formulae', 'anies', 'ikat', 'kontrak', 'rugi', 'negara', 'sam']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2743,34 +2983,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>16408</v>
+        <v>27176</v>
       </c>
       <c r="C65" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>nissa tetap melanjutkan perzinahannya dgn ayus sejak ketahuan di tahun oleh keluarga ayus dgn kelanjutan hub</t>
+          <t>hoegeng jenderal ini adalah seorg idealis dan berintegritas hukum di atas ketidakadilan ia akhirnya ditindas ole</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>['nissa', 'tetap', 'melanjutkan', 'perzinahannya', 'dgn', 'ayus', 'sejak', 'ketahuan', 'di', 'tahun', 'oleh', 'keluarga', 'ayus', 'dgn', 'kelanjutan', 'hub']</t>
+          <t>['hoegeng', 'jenderal', 'ini', 'adalah', 'seorg', 'idealis', 'dan', 'berintegritas', 'hukum', 'di', 'atas', 'ketidakadilan', 'ia', 'akhirnya', 'ditindas', 'ole']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
+          <t>['hoegeng', 'jenderal', 'ini', 'adalah', 'seorang', 'idealis', 'dan', 'berintegritas', 'hukum', 'di', 'atas', 'ke, tidak, adilan', 'ia', 'akhirnya', 'ditindas', 'ole']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['nissa', 'melanjutkan', 'perzinahannya', 'ayus', 'ketahuan', 'keluarga', 'ayus', 'kelanjutan', 'hub']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['nissa', 'lanjut', 'perzinahannya', 'ayus', 'tahu', 'keluarga', 'ayus', 'lanjut', 'hub']</t>
+          <t>['hoegeng', 'jenderal', 'idealis', 'berintegritas', 'hukum', 'ke, tidak, adilan', 'ditindas', 'ole']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['hoegeng', 'jenderal', 'idealis', 'integritas', 'hukum', 'ke tidak adil', 'tindas', 'ole']</t>
         </is>
       </c>
     </row>
@@ -2779,34 +3024,39 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>16409</v>
+        <v>27177</v>
       </c>
       <c r="C66" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>hubungan gelap nissa dan ayus terbongkar karena lupa hapus chat dan video bukti video dan chat akan dijadikan alat</t>
+          <t>rt yg waras siapa yg satu bahasa vietnam lalu dijawab gak ngerti lho bang gak bisa bahasa inggris</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['hubungan', 'gelap', 'nissa', 'dan', 'ayus', 'terbongkar', 'karena', 'lupa', 'hapus', 'chat', 'dan', 'video', 'bukti', 'video', 'dan', 'chat', 'akan', 'dijadikan', 'alat']</t>
+          <t>['rt', 'yg', 'waras', 'siapa', 'yg', 'satu', 'bahasa', 'vietnam', 'lalu', 'dijawab', 'gak', 'ngerti', 'lho', 'bang', 'gak', 'bisa', 'bahasa', 'inggris']</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 19 outcomes&gt;</t>
+          <t>['rt', 'yang', 'waras', 'siapa', 'yang', 'satu', 'bahasa', 'vietnam', 'lalu', 'dijawab', 'tidak', 'mengerti', 'lo', 'bang', 'tidak', 'bisa', 'bahasa', 'inggris']</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['hubungan', 'gelap', 'nissa', 'ayus', 'terbongkar', 'lupa', 'hapus', 'chat', 'video', 'bukti', 'video', 'chat', 'dijadikan', 'alat']</t>
+          <t>&lt;FreqDist with 15 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['hubung', 'gelap', 'nissa', 'ayus', 'bongkar', 'lupa', 'hapus', 'chat', 'video', 'bukti', 'video', 'chat', 'jadi', 'alat']</t>
+          <t>['waras', 'bahasa', 'vietnam', 'mengerti', 'lo', 'bang', 'bahasa', 'inggris']</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>['waras', 'bahasa', 'vietnam', 'erti', 'lo', 'bang', 'bahasa', 'inggris']</t>
         </is>
       </c>
     </row>
@@ -2815,34 +3065,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>16410</v>
+        <v>27178</v>
       </c>
       <c r="C67" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>cuma ada jalur jalankan indonesia saat ini karena masyarakat yg gampang dihasut maka korbankan persentase fr</t>
+          <t>duduk di warung kopi ada pegawai bea cukai tanya anies baswedan kerja di mana kalau gw sih pura gak kenal dan la</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>['cuma', 'ada', 'jalur', 'jalankan', 'indonesia', 'saat', 'ini', 'karena', 'masyarakat', 'yg', 'gampang', 'dihasut', 'maka', 'korbankan', 'persentase', 'fr']</t>
+          <t>['duduk', 'di', 'warung', 'kopi', 'ada', 'pegawai', 'bea', 'cukai', 'tanya', 'anies', 'baswedan', 'kerja', 'di', 'mana', 'kalau', 'gw', 'sih', 'pura', 'gak', 'kenal', 'dan', 'la']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['duduk', 'di', 'warung', 'kopi', 'ada', 'pegawai', 'bea', 'cukai', 'tanya', 'anies', 'baswedan', 'kerja', 'di', 'mana', 'kalau', 'gue', 'sih', 'pura', 'tidak', 'kenal', 'dan', 'lah']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>['jalur', 'jalankan', 'indonesia', 'masyarakat', 'gampang', 'dihasut', 'korbankan', 'persentase', 'fr']</t>
+          <t>&lt;FreqDist with 21 samples and 22 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['jalur', 'jalan', 'indonesia', 'masyarakat', 'gampang', 'hasut', 'korban', 'persentase', 'fr']</t>
+          <t>['duduk', 'warung', 'kopi', 'pegawai', 'bea', 'cukai', 'anies', 'baswedan', 'kerja', 'gue', 'pura', 'kenal']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['duduk', 'warung', 'kopi', 'pegawai', 'bea', 'cukai', 'anies', 'baswedan', 'kerja', 'gue', 'pura', 'kenal']</t>
         </is>
       </c>
     </row>
@@ -2851,34 +3106,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>16411</v>
+        <v>27179</v>
       </c>
       <c r="C68" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>partai nasional yg berpikir lbh liberal salah memberi ruang utk partai konservatif agama utk pertahankan pasal kar</t>
+          <t>anies panik tdk ada lagi yg tertinggal anies sdg cari jalan utk menyelinap keluar dari kasus ini amp siap men</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>['partai', 'nasional', 'yg', 'berpikir', 'lbh', 'liberal', 'salah', 'memberi', 'ruang', 'utk', 'partai', 'konservatif', 'agama', 'utk', 'pertahankan', 'pasal', 'kar']</t>
+          <t>['anies', 'panik', 'tdk', 'ada', 'lagi', 'yg', 'tertinggal', 'anies', 'sdg', 'cari', 'jalan', 'utk', 'menyelinap', 'keluar', 'dari', 'kasus', 'ini', 'amp', 'siap', 'men']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['anies', 'panik', 'tidak', 'ada', 'lagi', 'yang', 'tertinggal', 'anies', 'sedang', 'cari', 'jalan', 'untuk', 'menyelinap', 'keluar', 'dari', 'kasus', 'ini', 'amp', 'siap', 'men']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>['partai', 'nasional', 'berpikir', 'lbh', 'liberal', 'salah', 'ruang', 'partai', 'konservatif', 'agama', 'pertahankan', 'pasal', 'kar']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['partai', 'nasional', 'pikir', 'lbh', 'liberal', 'salah', 'ruang', 'partai', 'konservatif', 'agama', 'tahan', 'pasal', 'kar']</t>
+          <t>['anies', 'panik', 'tertinggal', 'anies', 'cari', 'jalan', 'menyelinap', 'men']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['anies', 'panik', 'tinggal', 'anies', 'cari', 'jalan', 'selinap', 'men']</t>
         </is>
       </c>
     </row>
@@ -2887,34 +3147,39 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>16412</v>
+        <v>27180</v>
       </c>
       <c r="C69" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>pks adalah partai oportunis amp licik dgn ikut revisi uu ite menjadi tdk sempurna ini sejarahnya pks adalah kelompok</t>
+          <t>anies panik masyarakat dki yg tinggal di metropolitan amp moderen terbukti adalah mayoritas masyarakat bodoh amp</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>['pks', 'adalah', 'partai', 'oportunis', 'amp', 'licik', 'dgn', 'ikut', 'revisi', 'uu', 'ite', 'menjadi', 'tdk', 'sempurna', 'ini', 'sejarahnya', 'pks', 'adalah', 'kelompok']</t>
+          <t>['anies', 'panik', 'masyarakat', 'dki', 'yg', 'tinggal', 'di', 'metropolitan', 'amp', 'moderen', 'terbukti', 'adalah', 'mayoritas', 'masyarakat', 'bodoh', 'amp']</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['anies', 'panik', 'masyarakat', 'daerah, khusus, ibukota', 'yang', 'tinggal', 'di', 'metropolitan', 'amp', 'moderen', 'terbukti', 'adalah', 'mayoritas', 'masyarakat', 'bodoh', 'amp']</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>['pks', 'partai', 'oportunis', 'licik', 'revisi', 'uu', 'ite', 'sempurna', 'sejarahnya', 'pks', 'kelompok']</t>
+          <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['pks', 'partai', 'oportunis', 'licik', 'revisi', 'uu', 'ite', 'sempurna', 'sejarah', 'pks', 'kelompok']</t>
+          <t>['anies', 'panik', 'masyarakat', 'daerah, khusus, ibukota', 'tinggal', 'metropolitan', 'moderen', 'terbukti', 'mayoritas', 'masyarakat', 'bodoh']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['anies', 'panik', 'masyarakat', 'daerah khusus ibukota', 'tinggal', 'metropolitan', 'moderen', 'bukti', 'mayoritas', 'masyarakat', 'bodoh']</t>
         </is>
       </c>
     </row>
@@ -2923,34 +3188,39 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>16413</v>
+        <v>27181</v>
       </c>
       <c r="C70" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>disiplin inilah bentuk kedisiplinan yg benar dijalankan terlihat sebuah mobil resmi ditarik oleh truk karena mel</t>
+          <t>anies panik dua bukti permulaan sudah di tangan kpk kpk sendiri perlu diawasi karena ada novel baswedan yg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>['disiplin', 'inilah', 'bentuk', 'kedisiplinan', 'yg', 'benar', 'dijalankan', 'terlihat', 'sebuah', 'mobil', 'resmi', 'ditarik', 'oleh', 'truk', 'karena', 'mel']</t>
+          <t>['anies', 'panik', 'dua', 'bukti', 'permulaan', 'sudah', 'di', 'tangan', 'kpk', 'kpk', 'sendiri', 'perlu', 'diawasi', 'karena', 'ada', 'novel', 'baswedan', 'yg']</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['anies', 'panik', 'dua', 'bukti', 'permulaan', 'sudah', 'di', 'tangan', 'komisi, pemberantasan, korupsi', 'komisi, pemberantasan, korupsi', 'sendiri', 'perlu', 'diawasi', 'karena', 'ada', 'novel', 'baswedan', 'yang']</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>['disiplin', 'bentuk', 'kedisiplinan', 'dijalankan', 'mobil', 'resmi', 'ditarik', 'truk', 'mel']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['disiplin', 'bentuk', 'disiplin', 'jalan', 'mobil', 'resmi', 'tarik', 'truk', 'mel']</t>
+          <t>['anies', 'panik', 'bukti', 'permulaan', 'tangan', 'komisi, pemberantasan, korupsi', 'komisi, pemberantasan, korupsi', 'diawasi', 'novel', 'baswedan']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['anies', 'panik', 'bukti', 'mula', 'tangan', 'komisi berantas korupsi', 'komisi berantas korupsi', 'awas', 'novel', 'baswedan']</t>
         </is>
       </c>
     </row>
@@ -2959,34 +3229,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>16414</v>
+        <v>27182</v>
       </c>
       <c r="C71" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>seseorg yg beranikan diri aktif di bidang keagamaan sgt wajar akan dicela habisan jika terjadi dosa maksiat mali</t>
+          <t>anies panik kpk temukan buktibukti yg bakal menjerat anies ternyata tindakan markup tanah sdh direncanak</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['seseorg', 'yg', 'beranikan', 'diri', 'aktif', 'di', 'bidang', 'keagamaan', 'sgt', 'wajar', 'akan', 'dicela', 'habisan', 'jika', 'terjadi', 'dosa', 'maksiat', 'mali']</t>
+          <t>['anies', 'panik', 'kpk', 'temukan', 'buktibukti', 'yg', 'bakal', 'menjerat', 'anies', 'ternyata', 'tindakan', 'markup', 'tanah', 'sdh', 'direncanak']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['anies', 'panik', 'komisi, pemberantasan, korupsi', 'temukan', 'buktibukti', 'yang', 'bakal', 'menjerat', 'anies', 'ternyata', 'tindakan', 'markup', 'tanah', 'sudah', 'direncanak']</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>['seseorg', 'beranikan', 'aktif', 'bidang', 'keagamaan', 'sgt', 'wajar', 'dicela', 'habisan', 'dosa', 'maksiat', 'mali']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['seseorg', 'rani', 'aktif', 'bidang', 'agama', 'sgt', 'wajar', 'cela', 'habis', 'dosa', 'maksiat', 'mal']</t>
+          <t>['anies', 'panik', 'komisi, pemberantasan, korupsi', 'temukan', 'buktibukti', 'menjerat', 'anies', 'tindakan', 'markup', 'tanah', 'direncanak']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['anies', 'panik', 'komisi berantas korupsi', 'temu', 'buktibukti', 'jerat', 'anies', 'tindak', 'markup', 'tanah', 'direncanak']</t>
         </is>
       </c>
     </row>
@@ -2995,34 +3270,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>16415</v>
+        <v>27183</v>
       </c>
       <c r="C72" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>rrc berhasil menangkap pembuat vaksin palsu yg meraup omzet  vaksin ini dibuat dari air garam rrc rencana aka</t>
+          <t>ahy temui mr chaplin yg memang sedang lagi cari bahan utk pergolakan politik karena juga tersandera hutang besar</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>['rrc', 'berhasil', 'menangkap', 'pembuat', 'vaksin', 'palsu', 'yg', 'meraup', 'omzet', 'vaksin', 'ini', 'dibuat', 'dari', 'air', 'garam', 'rrc', 'rencana', 'aka']</t>
+          <t>['ahy', 'temui', 'mr', 'chaplin', 'yg', 'memang', 'sedang', 'lagi', 'cari', 'bahan', 'utk', 'pergolakan', 'politik', 'karena', 'juga', 'tersandera', 'hutang', 'besar']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
+          <t>['agus, harimurti, yudhoyono', 'temui', 'mr', 'chaplin', 'yang', 'memang', 'sedang', 'lagi', 'cari', 'bahan', 'untuk', 'pergolakan', 'politik', 'karena', 'juga', 'tersandera', 'hutang', 'besar']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>['rrc', 'berhasil', 'menangkap', 'pembuat', 'vaksin', 'palsu', 'meraup', 'omzet', 'vaksin', 'air', 'garam', 'rrc', 'rencana', 'aka']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['rrc', 'hasil', 'tangkap', 'buat', 'vaksin', 'palsu', 'raup', 'omzet', 'vaksin', 'air', 'garam', 'rrc', 'rencana', 'aka']</t>
+          <t>['agus, harimurti, yudhoyono', 'temui', 'mr', 'chaplin', 'cari', 'bahan', 'pergolakan', 'politik', 'tersandera', 'hutang']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['agus harimurti yudhoyono', 'temu', 'mr', 'chaplin', 'cari', 'bahan', 'pergola', 'politik', 'sandera', 'hutang']</t>
         </is>
       </c>
     </row>
@@ -3031,34 +3311,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>16416</v>
+        <v>27184</v>
       </c>
       <c r="C73" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ini rekam jejak penyakit alm maheer yg kena penyakit lambung akut nonton di tengah video ini bgmn ia berteriak ke</t>
+          <t>melindungi dari kebuasan srigala yg gak tahu kesantunan dan etika ini jelas bukti kegagalan sebuah agama yg dianut</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>['ini', 'rekam', 'jejak', 'penyakit', 'alm', 'maheer', 'yg', 'kena', 'penyakit', 'lambung', 'akut', 'nonton', 'di', 'tengah', 'video', 'ini', 'bgmn', 'ia', 'berteriak', 'ke']</t>
+          <t>['melindungi', 'dari', 'kebuasan', 'srigala', 'yg', 'gak', 'tahu', 'kesantunan', 'dan', 'etika', 'ini', 'jelas', 'bukti', 'kegagalan', 'sebuah', 'agama', 'yg', 'dianut']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['melindungi', 'dari', 'kebuasan', 'serigala', 'yang', 'tidak', 'tahu', 'kesantunan', 'dan', 'etika', 'ini', 'jelas', 'bukti', 'kegagalan', 'sebuah', 'agama', 'yang', 'dianut']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>['rekam', 'jejak', 'penyakit', 'alm', 'maheer', 'kena', 'penyakit', 'lambung', 'akut', 'nonton', 'video', 'bgmn', 'berteriak']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>['rekam', 'jejak', 'sakit', 'alm', 'maheer', 'kena', 'sakit', 'lambung', 'akut', 'nonton', 'video', 'bgmn', 'teriak']</t>
+          <t>['melindungi', 'kebuasan', 'serigala', 'kesantunan', 'etika', 'bukti', 'kegagalan', 'agama', 'dianut']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['lindung', 'buas', 'serigala', 'santun', 'etika', 'bukti', 'gagal', 'agama', 'anut']</t>
         </is>
       </c>
     </row>
@@ -3067,34 +3352,39 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>16417</v>
+        <v>27185</v>
       </c>
       <c r="C74" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>adakah diperhatikan kalau musim hujan anies pun musim makian</t>
+          <t>perempuan afganistan lebih thn dilarang bernyanyi di depan umum ketika ada lakilaki suara perempuan bisa diaso</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>['adakah', 'diperhatikan', 'kalau', 'musim', 'hujan', 'anies', 'pun', 'musim', 'makian']</t>
+          <t>['perempuan', 'afganistan', 'lebih', 'thn', 'dilarang', 'bernyanyi', 'di', 'depan', 'umum', 'ketika', 'ada', 'lakilaki', 'suara', 'perempuan', 'bisa', 'diaso']</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 9 outcomes&gt;</t>
+          <t>['perempuan', 'afganistan', 'lebih', 'tahun', 'dilarang', 'bernyanyi', 'di', 'depan', 'umum', 'ketika', 'ada', 'lakilaki', 'suara', 'perempuan', 'bisa', 'diaso']</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>['adakah', 'diperhatikan', 'musim', 'hujan', 'anies', 'musim', 'makian']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['ada', 'perhati', 'musim', 'hujan', 'anies', 'musim', 'maki']</t>
+          <t>['perempuan', 'afganistan', 'dilarang', 'bernyanyi', 'lakilaki', 'suara', 'perempuan', 'diaso']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['perempuan', 'afganistan', 'larang', 'nyanyi', 'lakilaki', 'suara', 'perempuan', 'aso']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3393,39 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>16418</v>
+        <v>27186</v>
       </c>
       <c r="C75" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>ini argumentasi ttg sumbar salah memakai kata kearifan lokal kalau islam disebut kearifan lokal maka ada bagian</t>
+          <t>tembang nostalgia ahmad albar dunia ini panggung sandiwara syair oleh musisi senior ian antono amp sastrawan taufiq</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>['ini', 'argumentasi', 'ttg', 'sumbar', 'salah', 'memakai', 'kata', 'kearifan', 'lokal', 'kalau', 'islam', 'disebut', 'kearifan', 'lokal', 'maka', 'ada', 'bagian']</t>
+          <t>['tembang', 'nostalgia', 'ahmad', 'albar', 'dunia', 'ini', 'panggung', 'sandiwara', 'syair', 'oleh', 'musisi', 'senior', 'ian', 'antono', 'amp', 'sastrawan', 'taufiq']</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['tembang', 'nostalgia', 'ahmad', 'albar', 'dunia', 'ini', 'panggung', 'sandiwara', 'syair', 'oleh', 'musisi', 'senior', 'ian', 'antono', 'amp', 'sastrawan', 'taufik']</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>['argumentasi', 'ttg', 'sumbar', 'salah', 'memakai', 'kearifan', 'lokal', 'islam', 'kearifan', 'lokal']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['argumentasi', 'ttg', 'sumbar', 'salah', 'pakai', 'arif', 'lokal', 'islam', 'arif', 'lokal']</t>
+          <t>['tembang', 'nostalgia', 'ahmad', 'albar', 'dunia', 'panggung', 'sandiwara', 'syair', 'musisi', 'senior', 'ian', 'antono', 'sastrawan', 'taufik']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['tembang', 'nostalgia', 'ahmad', 'albar', 'dunia', 'panggung', 'sandiwara', 'syair', 'musisi', 'senior', 'ian', 'antono', 'sastrawan', 'taufik']</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3434,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>16419</v>
+        <v>27187</v>
       </c>
       <c r="C76" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>kalau kita mendengar artis pop yg berselingkuh sepertinya tdk ada reaksi yg beginian contoh gisel main dgn nobu</t>
+          <t>tilang elektronik no kebanyakan polisi dan kita lbh suka sistem konvensional bertemu muka saat pelanggaran dgn</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['kalau', 'kita', 'mendengar', 'artis', 'pop', 'yg', 'berselingkuh', 'sepertinya', 'tdk', 'ada', 'reaksi', 'yg', 'beginian', 'contoh', 'gisel', 'main', 'dgn', 'nobu']</t>
+          <t>['tilang', 'elektronik', 'no', 'kebanyakan', 'polisi', 'dan', 'kita', 'lbh', 'suka', 'sistem', 'konvensional', 'bertemu', 'muka', 'saat', 'pelanggaran', 'dgn']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
+          <t>['tilang', 'elektronik', 'no', 'kebanyakan', 'polisi', 'dan', 'kita', 'lebih', 'suka', 'sistem', 'konvensional', 'bertemu', 'muka', 'saat', 'pelanggaran', 'dengan']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['mendengar', 'artis', 'pop', 'berselingkuh', 'reaksi', 'contoh', 'gisel', 'main', 'nobu']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['dengar', 'artis', 'pop', 'selingkuh', 'reaksi', 'contoh', 'gisel', 'main', 'nobu']</t>
+          <t>['tilang', 'elektronik', 'no', 'kebanyakan', 'polisi', 'suka', 'sistem', 'konvensional', 'bertemu', 'muka', 'pelanggaran']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['tilang', 'elektronik', 'no', 'banyak', 'polisi', 'suka', 'sistem', 'konvensional', 'temu', 'muka', 'langgar']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3475,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>16420</v>
+        <v>27188</v>
       </c>
       <c r="C77" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>kearifan lokal bukan agama kearifan lokal merupakan bagian dr budaya suatu masyarakat yg tdk dapat dipisahkan dr</t>
+          <t>update berita konyol yahya waloni berhenti ceramah pas pada porsi waktu yg diberikan ia langsung meminta honor di</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['kearifan', 'lokal', 'bukan', 'agama', 'kearifan', 'lokal', 'merupakan', 'bagian', 'dr', 'budaya', 'suatu', 'masyarakat', 'yg', 'tdk', 'dapat', 'dipisahkan', 'dr']</t>
+          <t>['update', 'berita', 'konyol', 'yahya', 'waloni', 'berhenti', 'ceramah', 'pas', 'pada', 'porsi', 'waktu', 'yg', 'diberikan', 'ia', 'langsung', 'meminta', 'honor', 'di']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 17 outcomes&gt;</t>
+          <t>['pembaruan', 'berita', 'konyol', 'yahya', 'waloni', 'berhenti', 'ceramah', 'pas', 'pada', 'porsi', 'waktu', 'yang', 'diberikan', 'ia', 'langsung', 'meminta', 'honor', 'di']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['kearifan', 'lokal', 'agama', 'kearifan', 'lokal', 'dr', 'budaya', 'masyarakat', 'dipisahkan', 'dr']</t>
+          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['arif', 'lokal', 'agama', 'arif', 'lokal', 'dr', 'budaya', 'masyarakat', 'pisah', 'dr']</t>
+          <t>['pembaruan', 'berita', 'konyol', 'yahya', 'waloni', 'berhenti', 'ceramah', 'pas', 'porsi', 'langsung', 'honor']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['baru', 'berita', 'konyol', 'yahya', 'waloni', 'henti', 'ceramah', 'pas', 'porsi', 'langsung', 'honor']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3516,35 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>16421</v>
+        <v>27189</v>
       </c>
       <c r="C78" t="n">
-        <v>205</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">eksekutif amp legislatif sumbar menolak pemberlakuan skbm dgn alasan konyol merujuk uud pasal ayat dan </t>
-        </is>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['eksekutif', 'amp', 'legislatif', 'sumbar', 'menolak', 'pemberlakuan', 'skbm', 'dgn', 'alasan', 'konyol', 'merujuk', 'uud', 'pasal', 'ayat', 'dan']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['eksekutif', 'legislatif', 'sumbar', 'menolak', 'pemberlakuan', 'skbm', 'alasan', 'konyol', 'merujuk', 'uud', 'pasal', 'ayat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['eksekutif', 'legislatif', 'sumbar', 'tolak', 'laku', 'skbm', 'alas', 'konyol', 'rujuk', 'uud', 'pasal', 'ayat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3553,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>16422</v>
+        <v>27190</v>
       </c>
       <c r="C79" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>rt kalau lagi hujan seperti saat inijadi teringat pakar air dan tgupp andalan tuan besar yang terhormat</t>
+          <t>londoaiue folge bitte zurck ich liebe es deine freundschaft zu haben</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['rt', 'kalau', 'lagi', 'hujan', 'seperti', 'saat', 'inijadi', 'teringat', 'pakar', 'air', 'dan', 'tgupp', 'andalan', 'tuan', 'besar', 'yang', 'terhormat']</t>
+          <t>['londoaiue', 'folge', 'bitte', 'zurck', 'ich', 'liebe', 'es', 'deine', 'freundschaft', 'zu', 'haben']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['londoaiue', 'folge', 'bitte', 'zurck', 'ih', 'liebe', 'es', 'deine', 'freundschaft', 'zu', 'haben']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['hujan', 'inijadi', 'pakar', 'air', 'tgupp', 'andalan', 'tuan', 'terhormat']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['hujan', 'inijadi', 'pakar', 'air', 'tgupp', 'andal', 'tuan', 'hormat']</t>
+          <t>['londoaiue', 'folge', 'bitte', 'zurck', 'ih', 'liebe', 'es', 'deine', 'freundschaft', 'zu', 'haben']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['londoaiue', 'folge', 'bitte', 'zurck', 'ih', 'liebe', 'es', 'deine', 'freundschaft', 'zu', 'haben']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3594,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>16423</v>
+        <v>27191</v>
       </c>
       <c r="C80" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>kebanyakan nonton barongsai</t>
+          <t>be wise guy mau ke agama apa saja itu sarcastic mau umat islam disindir nabinya sebagai keledai liar dlm alk</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['kebanyakan', 'nonton', 'barongsai']</t>
+          <t>['be', 'wise', 'guy', 'mau', 'ke', 'agama', 'apa', 'saja', 'itu', 'sarcastic', 'mau', 'umat', 'islam', 'disindir', 'nabinya', 'sebagai', 'keledai', 'liar', 'dlm', 'alk']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['be', 'wise', 'guy', 'mau', 'ke', 'agama', 'apa', 'saja', 'itu', 'sarcastic', 'mau', 'umat', 'islam', 'disindir', 'nabinya', 'sebagai', 'keledai', 'liar', 'dalam', 'alk']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['kebanyakan', 'nonton', 'barongsai']</t>
+          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['banyak', 'nonton', 'barongsai']</t>
+          <t>['be', 'wise', 'guy', 'agama', 'sarcastic', 'umat', 'islam', 'disindir', 'nabinya', 'keledai', 'liar', 'alk']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['be', 'wise', 'guy', 'agama', 'sarcastic', 'umat', 'islam', 'sindir', 'nabi', 'keledai', 'liar', 'alk']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3635,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16424</v>
+        <v>27192</v>
       </c>
       <c r="C81" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>ini namanya pendosa berjamaah selalu ada jawabannya ya selama elu masih bisa mendapatkan jawaba</t>
+          <t>be wise mau ke agama apa saja itu sarcastic mau umat islam disindir nabinya sebagai keledai liar dlm</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['ini', 'namanya', 'pendosa', 'berjamaah', 'selalu', 'ada', 'jawabannya', 'ya', 'selama', 'elu', 'masih', 'bisa', 'mendapatkan', 'jawaba']</t>
+          <t>['be', 'wise', 'mau', 'ke', 'agama', 'apa', 'saja', 'itu', 'sarcastic', 'mau', 'umat', 'islam', 'disindir', 'nabinya', 'sebagai', 'keledai', 'liar', 'dlm']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['be', 'wise', 'mau', 'ke', 'agama', 'apa', 'saja', 'itu', 'sarcastic', 'mau', 'umat', 'islam', 'disindir', 'nabinya', 'sebagai', 'keledai', 'liar', 'dalam']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['namanya', 'pendosa', 'berjamaah', 'jawabannya', 'elu', 'jawaba']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['nama', 'dosa', 'jamaah', 'jawab', 'elu', 'jawaba']</t>
+          <t>['be', 'wise', 'agama', 'sarcastic', 'umat', 'islam', 'disindir', 'nabinya', 'keledai', 'liar']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['be', 'wise', 'agama', 'sarcastic', 'umat', 'islam', 'sindir', 'nabi', 'keledai', 'liar']</t>
         </is>
       </c>
     </row>
@@ -3355,34 +3676,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>16425</v>
+        <v>27193</v>
       </c>
       <c r="C82" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">anies rasyid baswedan soal banjir di dki tolong cari selamat masingmasing program saya jelas dari awal yaitu </t>
+          <t xml:space="preserve">penghinaan agama di publik di fakultas ushuluddin belum tahu kota mana tertera dgn jelas dan dibaca semua org </t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>['anies', 'rasyid', 'baswedan', 'soal', 'banjir', 'di', 'dki', 'tolong', 'cari', 'selamat', 'masingmasing', 'program', 'saya', 'jelas', 'dari', 'awal', 'yaitu']</t>
+          <t>['penghinaan', 'agama', 'di', 'publik', 'di', 'fakultas', 'ushuluddin', 'belum', 'tahu', 'kota', 'mana', 'tertera', 'dgn', 'jelas', 'dan', 'dibaca', 'semua', 'org']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['penghinaan', 'agama', 'di', 'publik', 'di', 'fakultas', 'ushuluddin', 'belum', 'tahu', 'kota', 'mana', 'tertera', 'dengan', 'jelas', 'dan', 'dibaca', 'semua', 'orang']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>['anies', 'rasyid', 'baswedan', 'banjir', 'dki', 'tolong', 'cari', 'selamat', 'masingmasing', 'program']</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>['anies', 'rasyid', 'baswedan', 'banjir', 'dki', 'tolong', 'cari', 'selamat', 'masingmasing', 'program']</t>
+          <t>['penghinaan', 'agama', 'publik', 'fakultas', 'ushuluddin', 'kota', 'tertera', 'dibaca', 'orang']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['hina', 'agama', 'publik', 'fakultas', 'ushuluddin', 'kota', 'tera', 'baca', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3391,34 +3717,39 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>16426</v>
+        <v>27194</v>
       </c>
       <c r="C83" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">miss the point buat seorg yg spesialisasinya di bidang keagamaan misalnya ustadz penyanyi rohani </t>
+          <t xml:space="preserve">saat pandji pragiwaksono dan sibuk bela fpi mrk ini lupa kalau fpi itu isis mau penggal </t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>['miss', 'the', 'point', 'buat', 'seorg', 'yg', 'spesialisasinya', 'di', 'bidang', 'keagamaan', 'misalnya', 'ustadz', 'penyanyi', 'rohani']</t>
+          <t>['saat', 'pandji', 'pragiwaksono', 'dan', 'sibuk', 'bela', 'fpi', 'mrk', 'ini', 'lupa', 'kalau', 'fpi', 'itu', 'isis', 'mau', 'penggal']</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
+          <t>['saat', 'panji', 'pragiwaksono', 'dan', 'sibuk', 'bela', 'front, pembela, islam', 'mereka', 'ini', 'lupa', 'kalau', 'front, pembela, islam', 'itu', 'isis', 'mau', 'penggal']</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>['miss', 'the', 'point', 'seorg', 'spesialisasinya', 'bidang', 'keagamaan', 'ustadz', 'penyanyi', 'rohani']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>['miss', 'the', 'point', 'seorg', 'spesialisasi', 'bidang', 'agama', 'ustadz', 'nyanyi', 'rohani']</t>
+          <t>['panji', 'pragiwaksono', 'sibuk', 'bela', 'front, pembela, islam', 'lupa', 'front, pembela, islam', 'isis', 'penggal']</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>['panji', 'pragiwaksono', 'sibuk', 'bela', 'front bela islam', 'lupa', 'front bela islam', 'isis', 'penggal']</t>
         </is>
       </c>
     </row>
@@ -3427,34 +3758,39 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>16427</v>
+        <v>27195</v>
       </c>
       <c r="C84" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>mari simak postingan seorg pembela nissa dari postingannya beritatwit ttg perzinahan nissa</t>
+          <t>kpk shrsnya malu berani memberikan tiga penghargaan ke anies</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['mari', 'simak', 'postingan', 'seorg', 'pembela', 'nissa', 'dari', 'postingannya', 'beritatwit', 'ttg', 'perzinahan', 'nissa']</t>
+          <t>['kpk', 'shrsnya', 'malu', 'berani', 'memberikan', 'tiga', 'penghargaan', 'ke', 'anies']</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
+          <t>['komisi, pemberantasan, korupsi', 'seharusnya', 'malu', 'berani', 'memberikan', 'tiga', 'penghargaan', 'ke', 'anies']</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['mari', 'simak', 'postingan', 'seorg', 'pembela', 'nissa', 'postingannya', 'beritatwit', 'ttg', 'perzinahan', 'nissa']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['mari', 'simak', 'postingan', 'seorg', 'bela', 'nissa', 'postingannya', 'beritatwit', 'ttg', 'perzinahan', 'nissa']</t>
+          <t>['komisi, pemberantasan, korupsi', 'malu', 'berani', 'penghargaan', 'anies']</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>['komisi berantas korupsi', 'malu', 'berani', 'harga', 'anies']</t>
         </is>
       </c>
     </row>
@@ -3463,34 +3799,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>16428</v>
+        <v>27196</v>
       </c>
       <c r="C85" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>tepat ayus berselingkuh dan nissa berzinah</t>
+          <t>ini alasannya kenapa program dp susah dijalankan kata anies memang program ini menjelimet kbbi menjelimet ruw</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['tepat', 'ayus', 'berselingkuh', 'dan', 'nissa', 'berzinah']</t>
+          <t>['ini', 'alasannya', 'kenapa', 'program', 'dp', 'susah', 'dijalankan', 'kata', 'anies', 'memang', 'program', 'ini', 'menjelimet', 'kbbi', 'menjelimet', 'ruw']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>['ini', 'alasannya', 'kenapa', 'program', 'uang, muka', 'susah', 'dijalankan', 'kata', 'anies', 'memang', 'program', 'ini', 'menjelimet', 'kamus, besar, bahasa, indonesia', 'menjelimet', 'ruw']</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>['ayus', 'berselingkuh', 'nissa', 'berzinah']</t>
+          <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['ayus', 'selingkuh', 'nissa', 'berzinah']</t>
+          <t>['alasannya', 'program', 'uang, muka', 'susah', 'dijalankan', 'anies', 'program', 'menjelimet', 'kamus, besar, bahasa, indonesia', 'menjelimet', 'ruw']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['alas', 'program', 'uang muka', 'susah', 'jalan', 'anies', 'program', 'jelimet', 'kamus besar bahasa indonesia', 'jelimet', 'ruw']</t>
         </is>
       </c>
     </row>
@@ -3499,34 +3840,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>16429</v>
+        <v>27197</v>
       </c>
       <c r="C86" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">nissa sabyan sang pelantun sholawat dan seorg qadrunwati tulen akhirnya terbukti jadi pelakor berselingkuh dgn </t>
+          <t>lirik pitbull ke yg lain di seberang jalan aliran sesat kobokan tuh</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>['nissa', 'sabyan', 'sang', 'pelantun', 'sholawat', 'dan', 'seorg', 'qadrunwati', 'tulen', 'akhirnya', 'terbukti', 'jadi', 'pelakor', 'berselingkuh', 'dgn']</t>
+          <t>['lirik', 'pitbull', 'ke', 'yg', 'lain', 'di', 'seberang', 'jalan', 'aliran', 'sesat', 'kobokan', 'tuh']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
+          <t>['lirik', 'pitbull', 'ke', 'yang', 'lain', 'di', 'seberang', 'jalan', 'aliran', 'sesat', 'kobokan', 'itu']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>['nissa', 'sabyan', 'sang', 'pelantun', 'sholawat', 'seorg', 'qadrunwati', 'tulen', 'terbukti', 'pelakor', 'berselingkuh']</t>
+          <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>['nissa', 'sabyan', 'sang', 'lantun', 'sholawat', 'seorg', 'qadrunwati', 'tulen', 'bukti', 'pelakor', 'selingkuh']</t>
+          <t>['lirik', 'pitbull', 'seberang', 'jalan', 'aliran', 'sesat', 'kobokan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['lirik', 'pitbull', 'seberang', 'jalan', 'alir', 'sesat', 'kobok']</t>
         </is>
       </c>
     </row>
@@ -3535,34 +3881,39 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>16430</v>
+        <v>27198</v>
       </c>
       <c r="C87" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>dprd dki ingatkan anies utk antisipasi prediksi cuaca sehingga pemprov bisa ambil langkah utk mencegah banjir ja</t>
+          <t>terima kasih ustadz atas pencerahan ini orang tuaku sdh merugi banyak sekolahkan aku di sekolah laknatullah itu</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>['dprd', 'dki', 'ingatkan', 'anies', 'utk', 'antisipasi', 'prediksi', 'cuaca', 'sehingga', 'pemprov', 'bisa', 'ambil', 'langkah', 'utk', 'mencegah', 'banjir', 'ja']</t>
+          <t>['terima', 'kasih', 'ustadz', 'atas', 'pencerahan', 'ini', 'orang', 'tuaku', 'sdh', 'merugi', 'banyak', 'sekolahkan', 'aku', 'di', 'sekolah', 'laknatullah', 'itu']</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['terima', 'kasih', 'ustaz', 'atas', 'pencerahan', 'ini', 'orang', 'tuaku', 'sudah', 'merugi', 'banyak', 'sekolahkan', 'aku', 'di', 'sekolah', 'laknatullah', 'itu']</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>['dprd', 'dki', 'ingatkan', 'anies', 'antisipasi', 'prediksi', 'cuaca', 'pemprov', 'ambil', 'langkah', 'mencegah', 'banjir', 'ja']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>['dprd', 'dki', 'ingat', 'anies', 'antisipasi', 'prediksi', 'cuaca', 'pemprov', 'ambil', 'langkah', 'cegah', 'banjir', 'ja']</t>
+          <t>['terima', 'kasih', 'ustaz', 'pencerahan', 'orang', 'tuaku', 'merugi', 'sekolahkan', 'sekolah', 'laknatullah']</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>['terima', 'kasih', 'ustaz', 'cerah', 'orang', 'tua', 'rugi', 'sekolah', 'sekolah', 'laknatullah']</t>
         </is>
       </c>
     </row>
@@ -3571,34 +3922,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>16431</v>
+        <v>27199</v>
       </c>
       <c r="C88" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>bersahabat dengan air bbrp bencana perlu dipertahankan demi kebaikan yg lain sehingga bisa mengurai kemacetan uda</t>
+          <t>life quote of the day bumi itu dihamparkan oleh allah dan tidak bergerak sebab bagaimana mungkin awak apollo bis</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>['bersahabat', 'dengan', 'air', 'bbrp', 'bencana', 'perlu', 'dipertahankan', 'demi', 'kebaikan', 'yg', 'lain', 'sehingga', 'bisa', 'mengurai', 'kemacetan', 'uda']</t>
+          <t>['life', 'quote', 'of', 'the', 'day', 'bumi', 'itu', 'dihamparkan', 'oleh', 'allah', 'dan', 'tidak', 'bergerak', 'sebab', 'bagaimana', 'mungkin', 'awak', 'apollo', 'bis']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
+          <t>['life', 'kutipan', 'of', 'the', 'day', 'bumi', 'itu', 'dihamparkan', 'oleh', 'allah', 'dan', 'tidak', 'bergerak', 'sebab', 'bagaimana', 'mungkin', 'awak', 'apollo', 'bis']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>['bersahabat', 'air', 'bbrp', 'bencana', 'dipertahankan', 'kebaikan', 'mengurai', 'kemacetan', 'uda']</t>
+          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>['sahabat', 'air', 'bbrp', 'bencana', 'tahan', 'baik', 'urai', 'macet', 'uda']</t>
+          <t>['life', 'kutipan', 'of', 'the', 'day', 'bumi', 'dihamparkan', 'allah', 'bergerak', 'awak', 'apollo', 'bis']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['life', 'kutip', 'of', 'the', 'day', 'bumi', 'hampar', 'allah', 'gerak', 'awak', 'apollo', 'bis']</t>
         </is>
       </c>
     </row>
@@ -3607,34 +3963,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>16432</v>
+        <v>27200</v>
       </c>
       <c r="C89" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>kok bisa tahu</t>
+          <t>londoaiue zu viele leute geben geld aus das sie verdient haben um dinge zu kaufen die sie nicht wollen</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>['kok', 'bisa', 'tahu']</t>
+          <t>['londoaiue', 'zu', 'viele', 'leute', 'geben', 'geld', 'aus', 'das', 'sie', 'verdient', 'haben', 'um', 'dinge', 'zu', 'kaufen', 'die', 'sie', 'nicht', 'wollen']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>['londoaiue', 'zu', 'viele', 'leute', 'geben', 'geld', 'aus', 'das', 'sih', 'verdient', 'haben', 'um', 'dinge', 'zu', 'kaufen', 'dia', 'sih', 'nicht', 'wollen']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['londoaiue', 'zu', 'viele', 'leute', 'geben', 'geld', 'aus', 'das', 'verdient', 'haben', 'um', 'dinge', 'zu', 'kaufen', 'nicht', 'wollen']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['londoaiue', 'zu', 'viele', 'leute', 'geben', 'geld', 'aus', 'das', 'verdient', 'haben', 'um', 'dinge', 'zu', 'kaufen', 'nicht', 'wollen']</t>
         </is>
       </c>
     </row>
@@ -3643,34 +4004,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>16433</v>
+        <v>27201</v>
       </c>
       <c r="C90" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>fb ya ke mana aje</t>
+          <t>guru kontrak skrg wajib bayar jt utk masuk benar atau tdk mari kita simak kenyataan di lapangan masuk polis</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>['fb', 'ya', 'ke', 'mana', 'aje']</t>
+          <t>['guru', 'kontrak', 'skrg', 'wajib', 'bayar', 'jt', 'utk', 'masuk', 'benar', 'atau', 'tdk', 'mari', 'kita', 'simak', 'kenyataan', 'di', 'lapangan', 'masuk', 'polis']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['guru', 'kontrak', 'sekarang', 'wajib', 'bayar', 'juta', 'untuk', 'masuk', 'benar', 'atau', 'tidak', 'mari', 'kita', 'simak', 'kenyataan', 'di', 'lapangan', 'masuk', 'polis']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>['fb', 'aje']</t>
+          <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>['fb', 'aje']</t>
+          <t>['guru', 'kontrak', 'wajib', 'bayar', 'juta', 'masuk', 'mari', 'simak', 'kenyataan', 'lapangan', 'masuk', 'polis']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['guru', 'kontrak', 'wajib', 'bayar', 'juta', 'masuk', 'mari', 'simak', 'nyata', 'lapang', 'masuk', 'polis']</t>
         </is>
       </c>
     </row>
@@ -3679,30 +4045,39 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>16434</v>
+        <v>27202</v>
       </c>
       <c r="C91" t="n">
-        <v>205</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>321</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>uang korupsi tdk mengenal kadrun amp cebong prasetyo edy dari perjuangan dicurigai bekerja sama dgn pemprov dki</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['uang', 'korupsi', 'tdk', 'mengenal', 'kadrun', 'amp', 'cebong', 'prasetyo', 'edy', 'dari', 'perjuangan', 'dicurigai', 'bekerja', 'sama', 'dgn', 'pemprov', 'dki']</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['uang', 'korupsi', 'tidak', 'mengenal', 'kadrun', 'amp', 'cebong', 'prasetyo', 'edy', 'dari', 'perjuangan', 'dicurigai', 'bekerja', 'sama', 'dengan', 'pemerintah, provinsi', 'daerah, khusus, ibukota']</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['uang', 'korupsi', 'mengenal', 'kadrun', 'cebong', 'prasetyo', 'edy', 'perjuangan', 'dicurigai', 'pemerintah, provinsi', 'daerah, khusus, ibukota']</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>['uang', 'korupsi', 'kenal', 'kadrun', 'cebong', 'prasetyo', 'edy', 'juang', 'curiga', 'perintah provinsi', 'daerah khusus ibukota']</t>
         </is>
       </c>
     </row>
@@ -3711,34 +4086,39 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>16435</v>
+        <v>27203</v>
       </c>
       <c r="C92" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>cepat diquote retweet utk rekam jejak kebohongan pemerintah dki dgn editan pemandangan gunung utk claim segarnya</t>
+          <t>saat sudah terkapar dan menderita segala sakit cacat dan bahkan maut kita sdh tdk sempat lagi utk merasa</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>['cepat', 'diquote', 'retweet', 'utk', 'rekam', 'jejak', 'kebohongan', 'pemerintah', 'dki', 'dgn', 'editan', 'pemandangan', 'gunung', 'utk', 'claim', 'segarnya']</t>
+          <t>['saat', 'sudah', 'terkapar', 'dan', 'menderita', 'segala', 'sakit', 'cacat', 'dan', 'bahkan', 'maut', 'kita', 'sdh', 'tdk', 'sempat', 'lagi', 'utk', 'merasa']</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['saat', 'sudah', 'terkapar', 'dan', 'menderita', 'segala', 'sakit', 'cacat', 'dan', 'bahkan', 'maut', 'kita', 'sudah', 'tidak', 'sempat', 'lagi', 'untuk', 'merasa']</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>['cepat', 'diquote', 'retweet', 'rekam', 'jejak', 'kebohongan', 'pemerintah', 'dki', 'editan', 'pemandangan', 'gunung', 'claim', 'segarnya']</t>
+          <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>['cepat', 'diquote', 'retweet', 'rekam', 'jejak', 'bohong', 'perintah', 'dki', 'edit', 'pandang', 'gunung', 'claim', 'segar']</t>
+          <t>['terkapar', 'menderita', 'sakit', 'cacat', 'maut']</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>['kapar', 'derita', 'sakit', 'cacat', 'maut']</t>
         </is>
       </c>
     </row>
@@ -3747,34 +4127,39 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16436</v>
+        <v>27204</v>
       </c>
       <c r="C93" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>sesi praktikum training pembuatan bom di mesjid dan menewaskan org peserta dan trainer sangat disayangkan bange</t>
+          <t>kecelakaan di tol tanjung morawa medan salah satu penyebab kecelakaan adalah kemampuan kita menghayal tingg</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>['sesi', 'praktikum', 'training', 'pembuatan', 'bom', 'di', 'mesjid', 'dan', 'menewaskan', 'org', 'peserta', 'dan', 'trainer', 'sangat', 'disayangkan', 'bange']</t>
+          <t>['kecelakaan', 'di', 'tol', 'tanjung', 'morawa', 'medan', 'salah', 'satu', 'penyebab', 'kecelakaan', 'adalah', 'kemampuan', 'kita', 'menghayal', 'tingg']</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
+          <t>['kecelakaan', 'di', 'tol', 'tanjung', 'morawa', 'medan', 'salah', 'satu', 'penyebab', 'kecelakaan', 'adalah', 'kemampuan', 'kita', 'mengkhayal', 'tingg']</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>['sesi', 'praktikum', 'training', 'pembuatan', 'bom', 'mesjid', 'menewaskan', 'org', 'peserta', 'trainer', 'disayangkan', 'bange']</t>
+          <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>['sesi', 'praktikum', 'training', 'buat', 'bom', 'mesjid', 'tewas', 'org', 'serta', 'trainer', 'sayang', 'bange']</t>
+          <t>['kecelakaan', 'tol', 'tanjung', 'morawa', 'medan', 'salah', 'penyebab', 'kecelakaan', 'kemampuan', 'mengkhayal', 'tingg']</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>['celaka', 'tol', 'tanjung', 'morawa', 'medan', 'salah', 'sebab', 'celaka', 'mampu', 'khayal', 'tingg']</t>
         </is>
       </c>
     </row>
@@ -3783,34 +4168,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16437</v>
+        <v>27205</v>
       </c>
       <c r="C94" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>ahy akhirnya akui jokowi tdk tahu menahu ttg kudeta pd amp hanya akalan dr oknum di partainya sendiri sdh bacakan</t>
+          <t>trailer ends and the movie begins mr chaplin</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['ahy', 'akhirnya', 'akui', 'jokowi', 'tdk', 'tahu', 'menahu', 'ttg', 'kudeta', 'pd', 'amp', 'hanya', 'akalan', 'dr', 'oknum', 'di', 'partainya', 'sendiri', 'sdh', 'bacakan']</t>
+          <t>['trailer', 'ends', 'and', 'the', 'movie', 'begins', 'mr', 'chaplin']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 20 samples and 20 outcomes&gt;</t>
+          <t>['trailer', 'ends', 'and', 'the', 'film', 'begins', 'mr', 'chaplin']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['ahy', 'akui', 'jokowi', 'menahu', 'ttg', 'kudeta', 'pd', 'akalan', 'dr', 'oknum', 'partainya', 'bacakan']</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['ahy', 'aku', 'jokowi', 'nahu', 'ttg', 'kudeta', 'pd', 'akal', 'dr', 'oknum', 'partai', 'baca']</t>
+          <t>['trailer', 'ends', 'and', 'the', 'film', 'begins', 'mr', 'chaplin']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['trailer', 'ends', 'and', 'the', 'film', 'begins', 'mr', 'chaplin']</t>
         </is>
       </c>
     </row>
@@ -3819,34 +4209,39 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16438</v>
+        <v>27206</v>
       </c>
       <c r="C95" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>yahya waloni diusulkan kembali ke agama lamanya krn merusak islam barang yg sdh dibeli gak bisa dikembalikan apal</t>
+          <t xml:space="preserve">way out for mr chaplin can fix up his debt is to seize power not only their entire families in good jobs in or </t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>['yahya', 'waloni', 'diusulkan', 'kembali', 'ke', 'agama', 'lamanya', 'krn', 'merusak', 'islam', 'barang', 'yg', 'sdh', 'dibeli', 'gak', 'bisa', 'dikembalikan', 'apal']</t>
+          <t>['way', 'out', 'for', 'mr', 'chaplin', 'can', 'fix', 'up', 'his', 'debt', 'is', 'to', 'seize', 'power', 'not', 'only', 'their', 'entire', 'families', 'in', 'good', 'jobs', 'in', 'or']</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
+          <t>['way', 'out', 'for', 'mr', 'chaplin', 'can', 'fix', 'up', 'his', 'debt', 'is', 'to', 'seize', 'power', 'not', 'only', 'their', 'entire', 'families', 'in', 'good', 'jobs', 'in', 'orang']</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>['yahya', 'waloni', 'diusulkan', 'agama', 'merusak', 'islam', 'barang', 'dibeli', 'dikembalikan', 'apal']</t>
+          <t>&lt;FreqDist with 23 samples and 24 outcomes&gt;</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>['yahya', 'waloni', 'usul', 'agama', 'rusak', 'islam', 'barang', 'beli', 'kembali', 'apal']</t>
+          <t>['way', 'out', 'for', 'mr', 'chaplin', 'can', 'fix', 'up', 'his', 'debt', 'is', 'to', 'seize', 'power', 'not', 'only', 'their', 'entire', 'families', 'in', 'good', 'jobs', 'in', 'orang']</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>['way', 'out', 'for', 'mr', 'chaplin', 'can', 'fix', 'up', 'his', 'debt', 'is', 'to', 'seize', 'power', 'not', 'only', 'their', 'entire', 'families', 'in', 'good', 'jobs', 'in', 'orang']</t>
         </is>
       </c>
     </row>
@@ -3855,34 +4250,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16439</v>
+        <v>27207</v>
       </c>
       <c r="C96" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t xml:space="preserve">bau gak benar tercium jelas kucuran dana hibah  utk museum yudhoyono tidak sepantasnya dijelaskan oleh partai </t>
+          <t>the only man who sticks closer to mr chaplin in his adversity than  friend is  creditor</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>['bau', 'gak', 'benar', 'tercium', 'jelas', 'kucuran', 'dana', 'hibah', 'utk', 'museum', 'yudhoyono', 'tidak', 'sepantasnya', 'dijelaskan', 'oleh', 'partai']</t>
+          <t>['the', 'only', 'man', 'who', 'sticks', 'closer', 'to', 'mr', 'chaplin', 'in', 'his', 'adversity', 'than', 'friend', 'is', 'creditor']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
+          <t>['the', 'only', 'man', 'who', 'sticks', 'closer', 'to', 'mr', 'chaplin', 'in', 'his', 'adversity', 'tahan', 'friend', 'is', 'creditor']</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>['bau', 'tercium', 'kucuran', 'dana', 'hibah', 'museum', 'yudhoyono', 'partai']</t>
-        </is>
-      </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>['bau', 'cium', 'kucur', 'dana', 'hibah', 'museum', 'yudhoyono', 'partai']</t>
+          <t>['the', 'only', 'man', 'who', 'sticks', 'closer', 'to', 'mr', 'chaplin', 'in', 'his', 'adversity', 'tahan', 'friend', 'is', 'creditor']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['the', 'only', 'man', 'who', 'sticks', 'closer', 'to', 'mr', 'chaplin', 'in', 'his', 'adversity', 'tahan', 'friend', 'is', 'creditor']</t>
         </is>
       </c>
     </row>
@@ -3891,34 +4291,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16440</v>
+        <v>27208</v>
       </c>
       <c r="C97" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>kasus mafia tanah terkesan sgt amis fk trduga mafia tanah dulu pernah kerja sbg pegawai bank di sini diduga di</t>
+          <t>the financial crisis of bukopin caused by single man mr chaplin can posed significant national banking macroecon</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>['kasus', 'mafia', 'tanah', 'terkesan', 'sgt', 'amis', 'fk', 'trduga', 'mafia', 'tanah', 'dulu', 'pernah', 'kerja', 'sbg', 'pegawai', 'bank', 'di', 'sini', 'diduga', 'di']</t>
+          <t>['the', 'financial', 'crisis', 'of', 'bukopin', 'caused', 'by', 'single', 'man', 'mr', 'chaplin', 'can', 'posed', 'significant', 'national', 'banking', 'macroecon']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 20 outcomes&gt;</t>
+          <t>['the', 'financial', 'crisis', 'of', 'bukopin', 'caused', 'by', 'single', 'man', 'mr', 'chaplin', 'can', 'posed', 'significant', 'nasional', 'banking', 'macroecon']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>['mafia', 'tanah', 'terkesan', 'sgt', 'amis', 'fk', 'trduga', 'mafia', 'tanah', 'kerja', 'sbg', 'pegawai', 'bank', 'diduga']</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>['mafia', 'tanah', 'kes', 'sgt', 'amis', 'fk', 'trduga', 'mafia', 'tanah', 'kerja', 'sbg', 'pegawai', 'bank', 'duga']</t>
+          <t>['the', 'financial', 'crisis', 'of', 'bukopin', 'caused', 'by', 'single', 'man', 'mr', 'chaplin', 'can', 'posed', 'significant', 'nasional', 'banking', 'macroecon']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['the', 'financial', 'crisis', 'of', 'bukopin', 'caused', 'by', 'single', 'man', 'mr', 'chaplin', 'can', 'posed', 'significant', 'nasional', 'banking', 'macroecon']</t>
         </is>
       </c>
     </row>
@@ -3927,34 +4332,39 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16441</v>
+        <v>27209</v>
       </c>
       <c r="C98" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>wang te suen usia tahun ia kembali muda dan merintis karir baru di modeling aktor dan seni pentas lainnya dgn</t>
+          <t>the story of mr chaplin take diversion is the best way for away from all problems</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>['wang', 'te', 'suen', 'usia', 'tahun', 'ia', 'kembali', 'muda', 'dan', 'merintis', 'karir', 'baru', 'di', 'modeling', 'aktor', 'dan', 'seni', 'pentas', 'lainnya', 'dgn']</t>
+          <t>['the', 'story', 'of', 'mr', 'chaplin', 'take', 'diversion', 'is', 'the', 'best', 'way', 'for', 'away', 'from', 'all', 'problems']</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 20 outcomes&gt;</t>
+          <t>['the', 'cerita', 'of', 'mr', 'chaplin', 'take', 'diversion', 'is', 'the', 'best', 'way', 'for', 'away', 'from', 'all', 'problems']</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>['wang', 'te', 'suen', 'usia', 'muda', 'merintis', 'karir', 'modeling', 'aktor', 'seni', 'pentas']</t>
+          <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>['wang', 'te', 'suen', 'usia', 'muda', 'rintis', 'karir', 'modeling', 'aktor', 'seni', 'pentas']</t>
+          <t>['the', 'cerita', 'of', 'mr', 'chaplin', 'take', 'diversion', 'is', 'the', 'best', 'way', 'for', 'away', 'from', 'all', 'problems']</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>['the', 'cerita', 'of', 'mr', 'chaplin', 'take', 'diversion', 'is', 'the', 'best', 'way', 'for', 'away', 'from', 'all', 'problems']</t>
         </is>
       </c>
     </row>
@@ -3963,34 +4373,39 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16442</v>
+        <v>27210</v>
       </c>
       <c r="C99" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>salah nama repost please recomment sorry ya</t>
+          <t>hak untuk bersekolah hak untuk mendapat pekerjaan yang layak hak untuk mendapat perlindungan indon</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['salah', 'nama', 'repost', 'please', 'recomment', 'sorry', 'ya']</t>
+          <t>['hak', 'untuk', 'bersekolah', 'hak', 'untuk', 'mendapat', 'pekerjaan', 'yang', 'layak', 'hak', 'untuk', 'mendapat', 'perlindungan', 'indon']</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
+          <t>['hak', 'untuk', 'bersekolah', 'hak', 'untuk', 'mendapat', 'pekerjaan', 'yang', 'layak', 'hak', 'untuk', 'mendapat', 'perlindungan', 'indon']</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['salah', 'nama', 'repost', 'please', 'recomment', 'sorry']</t>
+          <t>&lt;FreqDist with 9 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['salah', 'nama', 'repost', 'please', 'recomment', 'sorry']</t>
+          <t>['hak', 'bersekolah', 'hak', 'pekerjaan', 'layak', 'hak', 'perlindungan', 'indon']</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>['hak', 'sekolah', 'hak', 'kerja', 'layak', 'hak', 'lindung', 'indon']</t>
         </is>
       </c>
     </row>
@@ -3999,34 +4414,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16443</v>
+        <v>27211</v>
       </c>
       <c r="C100" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t xml:space="preserve">mau menuduh para peserta pembela pancasila di negeri ini sbg buzzer jokowi no kita semua buzzer jokowi </t>
+          <t>hak untuk hidup hak untuk kebebasan berpendapat hak untuk di hargai pendapatnya hak untuk di perl</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['mau', 'menuduh', 'para', 'peserta', 'pembela', 'pancasila', 'di', 'negeri', 'ini', 'sbg', 'buzzer', 'jokowi', 'no', 'kita', 'semua', 'buzzer', 'jokowi']</t>
+          <t>['hak', 'untuk', 'hidup', 'hak', 'untuk', 'kebebasan', 'berpendapat', 'hak', 'untuk', 'di', 'hargai', 'pendapatnya', 'hak', 'untuk', 'di', 'perl']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
+          <t>['hak', 'untuk', 'hidup', 'hak', 'untuk', 'kebebasan', 'berpendapat', 'hak', 'untuk', 'di', 'hargai', 'pendapatnya', 'hak', 'untuk', 'di', 'perl']</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>['menuduh', 'peserta', 'pembela', 'pancasila', 'negeri', 'sbg', 'buzzer', 'jokowi', 'no', 'buzzer', 'jokowi']</t>
+          <t>&lt;FreqDist with 9 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['tuduh', 'serta', 'bela', 'pancasila', 'negeri', 'sbg', 'buzzer', 'jokowi', 'no', 'buzzer', 'jokowi']</t>
+          <t>['hak', 'hidup', 'hak', 'kebebasan', 'berpendapat', 'hak', 'hargai', 'pendapatnya', 'hak', 'perl']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['hak', 'hidup', 'hak', 'bebas', 'dapat', 'hak', 'harga', 'dapat', 'hak', 'perl']</t>
         </is>
       </c>
     </row>
@@ -4035,34 +4455,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16444</v>
+        <v>27212</v>
       </c>
       <c r="C101" t="n">
-        <v>205</v>
+        <v>321</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ini pose sedang memandang ke saluran air belum ada yg melintas di pikiran setelah lama masih kosong</t>
+          <t>selanjutnya saya akan bongkar bhw indonesia sepakat amp ikut dlm kesepakatan deklarasi ham universal pbb nov</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['ini', 'pose', 'sedang', 'memandang', 'ke', 'saluran', 'air', 'belum', 'ada', 'yg', 'melintas', 'di', 'pikiran', 'setelah', 'lama', 'masih', 'kosong']</t>
+          <t>['selanjutnya', 'saya', 'akan', 'bongkar', 'bhw', 'indonesia', 'sepakat', 'amp', 'ikut', 'dlm', 'kesepakatan', 'deklarasi', 'ham', 'universal', 'pbb', 'nov']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
+          <t>['selanjutnya', 'saya', 'akan', 'bongkar', 'bahwa', 'indonesia', 'sepakat', 'amp', 'ikut', 'dalam', 'kesepakatan', 'deklarasi', 'ham', 'universal', 'pbb', 'november']</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>['pose', 'memandang', 'saluran', 'air', 'melintas', 'pikiran', 'kosong']</t>
+          <t>&lt;FreqDist with 16 samples and 16 outcomes&gt;</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['pose', 'pandang', 'salur', 'air', 'lintas', 'pikir', 'kosong']</t>
+          <t>['bongkar', 'indonesia', 'sepakat', 'kesepakatan', 'deklarasi', 'ham', 'universal', 'pbb', 'november']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['bongkar', 'indonesia', 'sepakat', 'sepakat', 'deklarasi', 'ham', 'universal', 'pbb', 'november']</t>
         </is>
       </c>
     </row>
